--- a/CompleteResultWithoutCoolingEffect.xlsx
+++ b/CompleteResultWithoutCoolingEffect.xlsx
@@ -484,7 +484,7 @@
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>3612.35</v>
+        <v>1520.99</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -493,19 +493,19 @@
         <v>0.2</v>
       </c>
       <c r="H2">
-        <v>390.22</v>
+        <v>385.35</v>
       </c>
       <c r="I2">
-        <v>7.573784982752557</v>
+        <v>5.281442744218793</v>
       </c>
       <c r="J2">
-        <v>74.42398229939863</v>
+        <v>577.8603676601197</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3708.11</v>
+        <v>1561.31</v>
       </c>
       <c r="F3">
         <v>515</v>
@@ -540,19 +540,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>402.42</v>
+        <v>397.15</v>
       </c>
       <c r="I3">
-        <v>8.597810665975032</v>
+        <v>6.223631076954803</v>
       </c>
       <c r="J3">
-        <v>75.01182208640967</v>
+        <v>581.8105297483853</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -578,7 +578,7 @@
         <v>1.4</v>
       </c>
       <c r="E4">
-        <v>3965.18</v>
+        <v>1669.55</v>
       </c>
       <c r="F4">
         <v>552</v>
@@ -587,19 +587,19 @@
         <v>1.4</v>
       </c>
       <c r="H4">
-        <v>431.87</v>
+        <v>425.85</v>
       </c>
       <c r="I4">
-        <v>9.540772695539999</v>
+        <v>6.962306014005264</v>
       </c>
       <c r="J4">
-        <v>75.53492913139053</v>
+        <v>584.7222982280073</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>3465.68</v>
+        <v>1459.23</v>
       </c>
       <c r="F5">
         <v>483</v>
@@ -634,19 +634,19 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>377.36</v>
+        <v>372.79</v>
       </c>
       <c r="I5">
-        <v>9.137035687400783</v>
+        <v>6.941581025240964</v>
       </c>
       <c r="J5">
-        <v>75.35737302101916</v>
+        <v>585.1676524711656</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -672,7 +672,7 @@
         <v>2.5</v>
       </c>
       <c r="E6">
-        <v>2117.35</v>
+        <v>891.51</v>
       </c>
       <c r="F6">
         <v>297</v>
@@ -681,19 +681,19 @@
         <v>2.5</v>
       </c>
       <c r="H6">
-        <v>231.46</v>
+        <v>229.6</v>
       </c>
       <c r="I6">
-        <v>6.92715541304716</v>
+        <v>5.763382520052403</v>
       </c>
       <c r="J6">
-        <v>74.22262558713555</v>
+        <v>581.4961124825641</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -719,7 +719,7 @@
         <v>3.1</v>
       </c>
       <c r="E7">
-        <v>351.17</v>
+        <v>147.86</v>
       </c>
       <c r="F7">
         <v>51</v>
@@ -728,25 +728,25 @@
         <v>3.1</v>
       </c>
       <c r="H7">
-        <v>39.76</v>
+        <v>39.73</v>
       </c>
       <c r="I7">
-        <v>3.926192532241316</v>
+        <v>4.137694709698962</v>
       </c>
       <c r="J7">
-        <v>72.69243122509215</v>
+        <v>576.3667551570106</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0.1</v>
       </c>
       <c r="E26">
-        <v>3563.63</v>
+        <v>1500.48</v>
       </c>
       <c r="F26">
         <v>499</v>
@@ -1621,19 +1621,19 @@
         <v>0.1</v>
       </c>
       <c r="H26">
-        <v>391.33</v>
+        <v>385.02</v>
       </c>
       <c r="I26">
-        <v>7.476345207129953</v>
+        <v>5.182638282508776</v>
       </c>
       <c r="J26">
-        <v>74.36674126144499</v>
+        <v>577.4139896100387</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -1659,7 +1659,7 @@
         <v>0.5</v>
       </c>
       <c r="E27">
-        <v>3666.81</v>
+        <v>1543.92</v>
       </c>
       <c r="F27">
         <v>516</v>
@@ -1668,19 +1668,19 @@
         <v>0.5</v>
       </c>
       <c r="H27">
-        <v>405.47</v>
+        <v>398.4</v>
       </c>
       <c r="I27">
-        <v>8.132187284552629</v>
+        <v>5.74301018661447</v>
       </c>
       <c r="J27">
-        <v>74.73601820372278</v>
+        <v>579.6906085006194</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>3926.7</v>
+        <v>1653.35</v>
       </c>
       <c r="F28">
         <v>554</v>
@@ -1715,19 +1715,19 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>435.92</v>
+        <v>427.91</v>
       </c>
       <c r="I28">
-        <v>9.191558773344411</v>
+        <v>6.592270160290468</v>
       </c>
       <c r="J28">
-        <v>75.32574667886364</v>
+        <v>583.0651049751905</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
@@ -1753,7 +1753,7 @@
         <v>2.1</v>
       </c>
       <c r="E29">
-        <v>3461.94</v>
+        <v>1457.66</v>
       </c>
       <c r="F29">
         <v>486</v>
@@ -1762,19 +1762,19 @@
         <v>2.1</v>
       </c>
       <c r="H29">
-        <v>380.9</v>
+        <v>375.36</v>
       </c>
       <c r="I29">
-        <v>9.291297509726348</v>
+        <v>7.075645502048474</v>
       </c>
       <c r="J29">
-        <v>75.44511571782641</v>
+        <v>585.7089428331237</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
@@ -1800,7 +1800,7 @@
         <v>3.3</v>
       </c>
       <c r="E30">
-        <v>2136.11</v>
+        <v>899.42</v>
       </c>
       <c r="F30">
         <v>301</v>
@@ -1809,19 +1809,19 @@
         <v>3.3</v>
       </c>
       <c r="H30">
-        <v>234.96</v>
+        <v>232.83</v>
       </c>
       <c r="I30">
-        <v>7.790186384346839</v>
+        <v>6.605574508266443</v>
       </c>
       <c r="J30">
-        <v>74.72472498344723</v>
+        <v>585.1091310876654</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
@@ -1847,7 +1847,7 @@
         <v>3.6</v>
       </c>
       <c r="E31">
-        <v>374.16</v>
+        <v>157.54</v>
       </c>
       <c r="F31">
         <v>55</v>
@@ -1856,25 +1856,25 @@
         <v>3.6</v>
       </c>
       <c r="H31">
-        <v>42.98</v>
+        <v>42.95</v>
       </c>
       <c r="I31">
-        <v>4.487508242182003</v>
+        <v>4.677556648440145</v>
       </c>
       <c r="J31">
-        <v>73.01395207107998</v>
+        <v>578.6620220203768</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>7.9</v>
       </c>
       <c r="E50">
-        <v>3478.85</v>
+        <v>1464.78</v>
       </c>
       <c r="F50">
         <v>498</v>
@@ -2749,19 +2749,19 @@
         <v>7.9</v>
       </c>
       <c r="H50">
-        <v>391.65</v>
+        <v>386.26</v>
       </c>
       <c r="I50">
-        <v>15.29793366570442</v>
+        <v>13.02696555001722</v>
       </c>
       <c r="J50">
-        <v>79.02237324608723</v>
+        <v>611.7393081817427</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
@@ -2787,7 +2787,7 @@
         <v>8.5</v>
       </c>
       <c r="E51">
-        <v>3579.8</v>
+        <v>1507.28</v>
       </c>
       <c r="F51">
         <v>517</v>
@@ -2796,19 +2796,19 @@
         <v>8.5</v>
       </c>
       <c r="H51">
-        <v>407.99</v>
+        <v>401.42</v>
       </c>
       <c r="I51">
-        <v>16.18986907710593</v>
+        <v>13.81060080424106</v>
       </c>
       <c r="J51">
-        <v>79.54485297872451</v>
+        <v>615.0541431626189</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
@@ -2834,7 +2834,7 @@
         <v>8.9</v>
       </c>
       <c r="E52">
-        <v>3852.73</v>
+        <v>1622.2</v>
       </c>
       <c r="F52">
         <v>556</v>
@@ -2843,19 +2843,19 @@
         <v>8.9</v>
       </c>
       <c r="H52">
-        <v>438.88</v>
+        <v>431.69</v>
       </c>
       <c r="I52">
-        <v>17.16126392486564</v>
+        <v>14.56700530861542</v>
       </c>
       <c r="J52">
-        <v>80.10015077568822</v>
+        <v>618.1168017993914</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
@@ -2881,7 +2881,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="E53">
-        <v>3417.31</v>
+        <v>1438.87</v>
       </c>
       <c r="F53">
         <v>490</v>
@@ -2890,19 +2890,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H53">
-        <v>385.13</v>
+        <v>380.32</v>
       </c>
       <c r="I53">
-        <v>16.48367524948452</v>
+        <v>14.26128290782862</v>
       </c>
       <c r="J53">
-        <v>79.74867773480945</v>
+        <v>617.3016547045554</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
@@ -2925,7 +2925,7 @@
         <v>163.4</v>
       </c>
       <c r="E54">
-        <v>48677.88</v>
+        <v>20495.95</v>
       </c>
       <c r="F54">
         <v>6870</v>
@@ -2934,19 +2934,19 @@
         <v>163.4</v>
       </c>
       <c r="H54">
-        <v>5388.3</v>
+        <v>5312.629999999999</v>
       </c>
       <c r="I54">
-        <v>265.3045772953996</v>
+        <v>234.9525879490423</v>
       </c>
       <c r="J54">
-        <v>1213.27151700214</v>
+        <v>9439.285422622575</v>
       </c>
       <c r="K54">
         <v>16</v>
       </c>
       <c r="L54">
-        <v>2.25</v>
+        <v>3.72</v>
       </c>
     </row>
   </sheetData>

--- a/CompleteResultWithoutCoolingEffect.xlsx
+++ b/CompleteResultWithoutCoolingEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Index</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,34 +804,833 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40909.33333333334</v>
       </c>
       <c r="D9">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3656.59</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2449</v>
       </c>
       <c r="G9">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1976.91</v>
       </c>
       <c r="I9">
-        <v>175</v>
+        <v>54.12295347522985</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>40.03397464623201</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.384201432</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.78</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40909.375</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2431.2</v>
+      </c>
+      <c r="F10">
+        <v>1347</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>1069.5</v>
+      </c>
+      <c r="I10">
+        <v>40.76030687282037</v>
+      </c>
+      <c r="J10">
+        <v>36.88623133882638</v>
+      </c>
+      <c r="K10">
+        <v>0.384201432</v>
+      </c>
+      <c r="L10">
+        <v>0.42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40909.41666666666</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2278.74</v>
+      </c>
+      <c r="F11">
+        <v>1243</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>985.51</v>
+      </c>
+      <c r="I11">
+        <v>39.52509125809797</v>
+      </c>
+      <c r="J11">
+        <v>36.57377220690122</v>
+      </c>
+      <c r="K11">
+        <v>0.384201432</v>
+      </c>
+      <c r="L11">
+        <v>0.39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40909.45833333334</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2253.64</v>
+      </c>
+      <c r="F12">
+        <v>1226</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>971.79</v>
+      </c>
+      <c r="I12">
+        <v>39.32319031092703</v>
+      </c>
+      <c r="J12">
+        <v>36.52280852954403</v>
+      </c>
+      <c r="K12">
+        <v>0.384201432</v>
+      </c>
+      <c r="L12">
+        <v>0.38</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40909.5</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2252.47</v>
+      </c>
+      <c r="F13">
+        <v>1225</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>970.96</v>
+      </c>
+      <c r="I13">
+        <v>39.31100680047984</v>
+      </c>
+      <c r="J13">
+        <v>36.51972160888394</v>
+      </c>
+      <c r="K13">
+        <v>0.384201432</v>
+      </c>
+      <c r="L13">
+        <v>0.38</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40909.54166666666</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2269.66</v>
+      </c>
+      <c r="F14">
+        <v>1237</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>980.6900000000001</v>
+      </c>
+      <c r="I14">
+        <v>39.45405795852787</v>
+      </c>
+      <c r="J14">
+        <v>36.55584500157205</v>
+      </c>
+      <c r="K14">
+        <v>0.384201432</v>
+      </c>
+      <c r="L14">
+        <v>0.39</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>40909.58333333334</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>2379.15</v>
+      </c>
+      <c r="F15">
+        <v>1311</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>1040.39</v>
+      </c>
+      <c r="I15">
+        <v>40.33221142947934</v>
+      </c>
+      <c r="J15">
+        <v>36.77781844589215</v>
+      </c>
+      <c r="K15">
+        <v>0.384201432</v>
+      </c>
+      <c r="L15">
+        <v>0.41</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>40909.625</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3154.53</v>
+      </c>
+      <c r="F16">
+        <v>1915</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>1533.02</v>
+      </c>
+      <c r="I16">
+        <v>47.58264981358576</v>
+      </c>
+      <c r="J16">
+        <v>38.34732251936123</v>
+      </c>
+      <c r="K16">
+        <v>0.384201432</v>
+      </c>
+      <c r="L16">
+        <v>0.6</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>40909.66666666666</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>40909.70833333334</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>40909.75</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40909.79166666666</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40909.83333333334</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <v>40909.875</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40909.91666666666</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>25</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>40909.95833333334</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>40910</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>300</v>
+      </c>
+      <c r="D26">
+        <v>600</v>
+      </c>
+      <c r="E26">
+        <v>20675.98</v>
+      </c>
+      <c r="F26">
+        <v>11953</v>
+      </c>
+      <c r="G26">
+        <v>600</v>
+      </c>
+      <c r="H26">
+        <v>9528.77</v>
+      </c>
+      <c r="I26">
+        <v>740.411467919148</v>
+      </c>
+      <c r="J26">
+        <v>298.217494297213</v>
+      </c>
+      <c r="K26">
+        <v>3.073611456</v>
+      </c>
+      <c r="L26">
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>

--- a/CompleteResultWithoutCoolingEffect.xlsx
+++ b/CompleteResultWithoutCoolingEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Index</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>40909.04166666666</v>
+        <v>40909</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>40909.08333333334</v>
+        <v>40909.04166666666</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -537,13 +537,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -569,13 +569,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>40909.125</v>
+        <v>40909.08333333334</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -584,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -616,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>40909.16666666666</v>
+        <v>40909.125</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -663,13 +663,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>40909.20833333334</v>
+        <v>40909.16666666666</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>40909.25</v>
+        <v>40909.20833333334</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>40909.29166666666</v>
+        <v>40909.25</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -804,43 +804,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>40909.33333333334</v>
+        <v>40909.29166666666</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>3656.59</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2449</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>1976.91</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>54.12295347522985</v>
+        <v>40</v>
       </c>
       <c r="J9">
-        <v>40.03397464623201</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,37 +851,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>40909.375</v>
+        <v>40909.33333333334</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>2431.2</v>
+        <v>3359.6</v>
       </c>
       <c r="F10">
-        <v>1347</v>
+        <v>2449</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>1069.5</v>
+        <v>1997.88</v>
       </c>
       <c r="I10">
-        <v>40.76030687282037</v>
+        <v>70.16151446513106</v>
       </c>
       <c r="J10">
-        <v>36.88623133882638</v>
+        <v>38.53471366506738</v>
       </c>
       <c r="K10">
-        <v>0.384201432</v>
+        <v>0.365864364</v>
       </c>
       <c r="L10">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -898,37 +898,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>40909.41666666666</v>
+        <v>40909.375</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>2278.74</v>
+        <v>2263.67</v>
       </c>
       <c r="F11">
-        <v>1243</v>
+        <v>1347</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>985.51</v>
+        <v>1081.18</v>
       </c>
       <c r="I11">
-        <v>39.52509125809797</v>
+        <v>56.33713404932411</v>
       </c>
       <c r="J11">
-        <v>36.57377220690122</v>
+        <v>35.6234820508579</v>
       </c>
       <c r="K11">
-        <v>0.384201432</v>
+        <v>0.365864364</v>
       </c>
       <c r="L11">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -945,34 +945,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>40909.45833333334</v>
+        <v>40909.41666666666</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>2253.64</v>
+        <v>2123.6</v>
       </c>
       <c r="F12">
-        <v>1226</v>
+        <v>1243</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H12">
-        <v>971.79</v>
+        <v>996.3200000000001</v>
       </c>
       <c r="I12">
-        <v>39.32319031092703</v>
+        <v>55.05810611531939</v>
       </c>
       <c r="J12">
-        <v>36.52280852954403</v>
+        <v>35.32505081954475</v>
       </c>
       <c r="K12">
-        <v>0.384201432</v>
+        <v>0.365864364</v>
       </c>
       <c r="L12">
         <v>0.38</v>
@@ -992,645 +992,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>40909.5</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>440</v>
       </c>
       <c r="E13">
-        <v>2252.47</v>
+        <v>7746.870000000001</v>
       </c>
       <c r="F13">
-        <v>1225</v>
+        <v>5039</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>440</v>
       </c>
       <c r="H13">
-        <v>970.96</v>
+        <v>4075.380000000001</v>
       </c>
       <c r="I13">
-        <v>39.31100680047984</v>
+        <v>501.5567546297746</v>
       </c>
       <c r="J13">
-        <v>36.51972160888394</v>
+        <v>109.48324653547</v>
       </c>
       <c r="K13">
-        <v>0.384201432</v>
+        <v>1.097593092</v>
       </c>
       <c r="L13">
-        <v>0.38</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>40909.54166666666</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2269.66</v>
-      </c>
-      <c r="F14">
-        <v>1237</v>
-      </c>
-      <c r="G14">
-        <v>25</v>
-      </c>
-      <c r="H14">
-        <v>980.6900000000001</v>
-      </c>
-      <c r="I14">
-        <v>39.45405795852787</v>
-      </c>
-      <c r="J14">
-        <v>36.55584500157205</v>
-      </c>
-      <c r="K14">
-        <v>0.384201432</v>
-      </c>
-      <c r="L14">
-        <v>0.39</v>
-      </c>
-      <c r="M14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>40909.58333333334</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>2379.15</v>
-      </c>
-      <c r="F15">
-        <v>1311</v>
-      </c>
-      <c r="G15">
-        <v>25</v>
-      </c>
-      <c r="H15">
-        <v>1040.39</v>
-      </c>
-      <c r="I15">
-        <v>40.33221142947934</v>
-      </c>
-      <c r="J15">
-        <v>36.77781844589215</v>
-      </c>
-      <c r="K15">
-        <v>0.384201432</v>
-      </c>
-      <c r="L15">
-        <v>0.41</v>
-      </c>
-      <c r="M15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2">
-        <v>40909.625</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>3154.53</v>
-      </c>
-      <c r="F16">
-        <v>1915</v>
-      </c>
-      <c r="G16">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>1533.02</v>
-      </c>
-      <c r="I16">
-        <v>47.58264981358576</v>
-      </c>
-      <c r="J16">
-        <v>38.34732251936123</v>
-      </c>
-      <c r="K16">
-        <v>0.384201432</v>
-      </c>
-      <c r="L16">
-        <v>0.6</v>
-      </c>
-      <c r="M16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2">
-        <v>40909.66666666666</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>25</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>25</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>40909.70833333334</v>
-      </c>
-      <c r="D18">
-        <v>25</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>25</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>25</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
-        <v>40909.75</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>25</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>25</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2">
-        <v>40909.79166666666</v>
-      </c>
-      <c r="D20">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>25</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>25</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2">
-        <v>40909.83333333334</v>
-      </c>
-      <c r="D21">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>25</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>25</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2">
-        <v>40909.875</v>
-      </c>
-      <c r="D22">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>25</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>25</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2">
-        <v>40909.91666666666</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>25</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>25</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
-        <v>40909.95833333334</v>
-      </c>
-      <c r="D24">
-        <v>25</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>25</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>25</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2">
-        <v>40910</v>
-      </c>
-      <c r="D25">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>25</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>25</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>300</v>
-      </c>
-      <c r="D26">
-        <v>600</v>
-      </c>
-      <c r="E26">
-        <v>20675.98</v>
-      </c>
-      <c r="F26">
-        <v>11953</v>
-      </c>
-      <c r="G26">
-        <v>600</v>
-      </c>
-      <c r="H26">
-        <v>9528.77</v>
-      </c>
-      <c r="I26">
-        <v>740.411467919148</v>
-      </c>
-      <c r="J26">
-        <v>298.217494297213</v>
-      </c>
-      <c r="K26">
-        <v>3.073611456</v>
-      </c>
-      <c r="L26">
-        <v>3.75</v>
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/CompleteResultWithoutCoolingEffect.xlsx
+++ b/CompleteResultWithoutCoolingEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="15">
   <si>
     <t>Index</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,37 +475,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>43466.33333333334</v>
+        <v>40909.5</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>12.38</v>
       </c>
       <c r="E2">
-        <v>1140.74</v>
+        <v>226.13</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>107</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>12.38</v>
       </c>
       <c r="H2">
-        <v>385.03</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I2">
-        <v>5.882651856337475</v>
+        <v>13.67837605666693</v>
       </c>
       <c r="J2">
-        <v>28.00158737339302</v>
+        <v>29.60808832990133</v>
       </c>
       <c r="K2">
         <v>0.384201432</v>
       </c>
       <c r="L2">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -522,43 +522,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>43466.375</v>
+        <v>40909.54166666666</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>12.38</v>
       </c>
       <c r="E3">
-        <v>1170.98</v>
+        <v>34.97</v>
       </c>
       <c r="F3">
-        <v>515</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>12.38</v>
       </c>
       <c r="H3">
-        <v>396.81</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I3">
-        <v>6.8548964846849</v>
+        <v>12.65122352936021</v>
       </c>
       <c r="J3">
-        <v>28.20822452517379</v>
+        <v>29.3729914243454</v>
       </c>
       <c r="K3">
         <v>0.384201432</v>
       </c>
       <c r="L3">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -569,43 +569,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>43466.41666666666</v>
+        <v>40909.58333333334</v>
       </c>
       <c r="D4">
-        <v>1.4</v>
+        <v>12.39</v>
       </c>
       <c r="E4">
-        <v>1252.16</v>
+        <v>85.92</v>
       </c>
       <c r="F4">
-        <v>552</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>1.4</v>
+        <v>12.39</v>
       </c>
       <c r="H4">
-        <v>425.47</v>
+        <v>33.09</v>
       </c>
       <c r="I4">
-        <v>7.672198813761611</v>
+        <v>12.94885130485153</v>
       </c>
       <c r="J4">
-        <v>28.38589335419719</v>
+        <v>29.44090015843292</v>
       </c>
       <c r="K4">
         <v>0.384201432</v>
       </c>
       <c r="L4">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -616,43 +616,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>43466.45833333334</v>
+        <v>40909.625</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>12.39</v>
       </c>
       <c r="E5">
-        <v>1094.42</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>12.39</v>
       </c>
       <c r="H5">
-        <v>372.47</v>
+        <v>33.09</v>
       </c>
       <c r="I5">
-        <v>7.500894978550491</v>
+        <v>12.39</v>
       </c>
       <c r="J5">
-        <v>28.34032877774396</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -663,43 +663,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>43466.5</v>
+        <v>40909.66666666666</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>12.31</v>
       </c>
       <c r="E6">
-        <v>668.64</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2.5</v>
+        <v>12.31</v>
       </c>
       <c r="H6">
-        <v>229.46</v>
+        <v>33.09</v>
       </c>
       <c r="I6">
-        <v>5.918292814561937</v>
+        <v>12.31</v>
       </c>
       <c r="J6">
-        <v>27.98119030498443</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -710,37 +710,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>43466.54166666666</v>
+        <v>40909.70833333334</v>
       </c>
       <c r="D7">
-        <v>3.1</v>
+        <v>12.23</v>
       </c>
       <c r="E7">
-        <v>110.9</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>3.1</v>
+        <v>12.23</v>
       </c>
       <c r="H7">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I7">
-        <v>3.750616438671614</v>
+        <v>12.23</v>
       </c>
       <c r="J7">
-        <v>27.49358345566043</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -757,13 +757,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>43466.58333333334</v>
+        <v>40909.75</v>
       </c>
       <c r="D8">
-        <v>3.2</v>
+        <v>12.15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.2</v>
+        <v>12.15</v>
       </c>
       <c r="H8">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I8">
-        <v>3.2</v>
+        <v>12.15</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -804,13 +804,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>43466.625</v>
+        <v>40909.79166666666</v>
       </c>
       <c r="D9">
-        <v>3.2</v>
+        <v>12.19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.2</v>
+        <v>12.19</v>
       </c>
       <c r="H9">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I9">
-        <v>3.2</v>
+        <v>12.19</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>43466.66666666666</v>
+        <v>40909.83333333334</v>
       </c>
       <c r="D10">
-        <v>2.3</v>
+        <v>12.23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -866,13 +866,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.3</v>
+        <v>12.23</v>
       </c>
       <c r="H10">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I10">
-        <v>2.3</v>
+        <v>12.23</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>43466.70833333334</v>
+        <v>40909.875</v>
       </c>
       <c r="D11">
-        <v>2.1</v>
+        <v>12.27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.1</v>
+        <v>12.27</v>
       </c>
       <c r="H11">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I11">
-        <v>2.1</v>
+        <v>12.27</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>43466.75</v>
+        <v>40909.91666666666</v>
       </c>
       <c r="D12">
-        <v>1.7</v>
+        <v>12.18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.7</v>
+        <v>12.18</v>
       </c>
       <c r="H12">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I12">
-        <v>1.7</v>
+        <v>12.18</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>43466.79166666666</v>
+        <v>40909.95833333334</v>
       </c>
       <c r="D13">
-        <v>1.9</v>
+        <v>12.1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.9</v>
+        <v>12.1</v>
       </c>
       <c r="H13">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I13">
-        <v>1.9</v>
+        <v>12.1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1039,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>43466.83333333334</v>
+        <v>40910</v>
       </c>
       <c r="D14">
-        <v>1.7</v>
+        <v>12.02</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.7</v>
+        <v>12.02</v>
       </c>
       <c r="H14">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I14">
-        <v>1.7</v>
+        <v>12.02</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1086,13 +1086,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>43466.875</v>
+        <v>40910.04166666666</v>
       </c>
       <c r="D15">
-        <v>1.3</v>
+        <v>11.78</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.3</v>
+        <v>11.78</v>
       </c>
       <c r="H15">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I15">
-        <v>1.3</v>
+        <v>11.78</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>43466.91666666666</v>
+        <v>40910.08333333334</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>11.54</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>11.54</v>
       </c>
       <c r="H16">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>11.54</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
-        <v>43466.95833333334</v>
+        <v>40910.125</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>11.29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>11.29</v>
       </c>
       <c r="H17">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.29</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>43467</v>
+        <v>40910.16666666666</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="H18">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
-        <v>43467.04166666666</v>
+        <v>40910.20833333334</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="H19">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>43467.08333333334</v>
+        <v>40910.25</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="H20">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2">
-        <v>43467.125</v>
+        <v>40910.29166666666</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="H21">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1415,37 +1415,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
-        <v>43467.16666666666</v>
+        <v>40910.33333333334</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>9.92</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>26.63</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>9.92</v>
       </c>
       <c r="H22">
-        <v>39.72</v>
+        <v>33.09</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.14402903214801</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>28.83500730307238</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.384201432</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -1462,37 +1462,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2">
-        <v>43467.20833333334</v>
+        <v>40910.375</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H23">
-        <v>39.72</v>
+        <v>30.57</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.16065043215337</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>28.84239725501763</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.384201432</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
@@ -1509,37 +1509,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
-        <v>43467.25</v>
+        <v>40910.41666666666</v>
       </c>
       <c r="D24">
-        <v>0.1</v>
+        <v>9.6</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>164.69</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G24">
-        <v>0.1</v>
+        <v>9.6</v>
       </c>
       <c r="H24">
-        <v>39.72</v>
+        <v>60.14</v>
       </c>
       <c r="I24">
-        <v>0.1</v>
+        <v>10.55230486250287</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>28.9315902217382</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.384201432</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -1556,37 +1556,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
-        <v>43467.29166666666</v>
+        <v>40910.45833333334</v>
       </c>
       <c r="D25">
-        <v>0.1</v>
+        <v>9.56</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>135.1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G25">
-        <v>0.1</v>
+        <v>9.56</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>50.12</v>
       </c>
       <c r="I25">
-        <v>0.1</v>
+        <v>10.3659330945913</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>28.88990489319276</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.384201432</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -1603,37 +1603,37 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
-        <v>43467.33333333334</v>
+        <v>40910.5</v>
       </c>
       <c r="D26">
-        <v>0.1</v>
+        <v>9.52</v>
       </c>
       <c r="E26">
-        <v>1125.36</v>
+        <v>214.98</v>
       </c>
       <c r="F26">
-        <v>499</v>
+        <v>100</v>
       </c>
       <c r="G26">
-        <v>0.1</v>
+        <v>9.52</v>
       </c>
       <c r="H26">
-        <v>384.7</v>
+        <v>78.03</v>
       </c>
       <c r="I26">
-        <v>5.784603953991052</v>
+        <v>10.73321424565245</v>
       </c>
       <c r="J26">
-        <v>27.97952713539897</v>
+        <v>28.97364299903736</v>
       </c>
       <c r="K26">
         <v>0.384201432</v>
       </c>
       <c r="L26">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -1650,43 +1650,43 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
-        <v>43467.375</v>
+        <v>40910.54166666666</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E27">
-        <v>1157.94</v>
+        <v>176.95</v>
       </c>
       <c r="F27">
-        <v>516</v>
+        <v>83</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="H27">
-        <v>398.05</v>
+        <v>64.87</v>
       </c>
       <c r="I27">
-        <v>6.381261713168954</v>
+        <v>9.910872623414775</v>
       </c>
       <c r="J27">
-        <v>28.10685842902148</v>
+        <v>28.79561024301424</v>
       </c>
       <c r="K27">
         <v>0.384201432</v>
       </c>
       <c r="L27">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -1697,43 +1697,43 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
-        <v>43467.41666666666</v>
+        <v>40910.58333333334</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>8.26</v>
       </c>
       <c r="E28">
-        <v>1240.01</v>
+        <v>98.33</v>
       </c>
       <c r="F28">
-        <v>554</v>
+        <v>47</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>8.26</v>
       </c>
       <c r="H28">
-        <v>427.52</v>
+        <v>36.87</v>
       </c>
       <c r="I28">
-        <v>7.31118442210493</v>
+        <v>8.871857422355674</v>
       </c>
       <c r="J28">
-        <v>28.30797976923713</v>
+        <v>28.56934250166217</v>
       </c>
       <c r="K28">
         <v>0.384201432</v>
       </c>
       <c r="L28">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -1744,43 +1744,43 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
-        <v>43467.45833333334</v>
+        <v>40910.625</v>
       </c>
       <c r="D29">
-        <v>2.1</v>
+        <v>7.63</v>
       </c>
       <c r="E29">
-        <v>1093.24</v>
+        <v>0.8</v>
       </c>
       <c r="F29">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2.1</v>
+        <v>7.63</v>
       </c>
       <c r="H29">
-        <v>375.05</v>
+        <v>36.87</v>
       </c>
       <c r="I29">
-        <v>7.642604671821402</v>
+        <v>7.702488631415747</v>
       </c>
       <c r="J29">
-        <v>28.36987074963157</v>
+        <v>28.31473922704947</v>
       </c>
       <c r="K29">
         <v>0.384201432</v>
       </c>
       <c r="L29">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -1791,43 +1791,43 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
-        <v>43467.5</v>
+        <v>40910.66666666666</v>
       </c>
       <c r="D30">
-        <v>3.3</v>
+        <v>7.08</v>
       </c>
       <c r="E30">
-        <v>674.5599999999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>3.3</v>
+        <v>7.08</v>
       </c>
       <c r="H30">
-        <v>232.7</v>
+        <v>36.87</v>
       </c>
       <c r="I30">
-        <v>6.766819593150046</v>
+        <v>7.08</v>
       </c>
       <c r="J30">
-        <v>28.16002843302191</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -1838,37 +1838,37 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
-        <v>43467.54166666666</v>
+        <v>40910.70833333334</v>
       </c>
       <c r="D31">
-        <v>3.6</v>
+        <v>6.53</v>
       </c>
       <c r="E31">
-        <v>118.15</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>3.6</v>
+        <v>6.53</v>
       </c>
       <c r="H31">
-        <v>42.93</v>
+        <v>36.87</v>
       </c>
       <c r="I31">
-        <v>4.297805141122467</v>
+        <v>6.53</v>
       </c>
       <c r="J31">
-        <v>27.60814464513322</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
@@ -1885,13 +1885,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
-        <v>43467.58333333334</v>
+        <v>40910.75</v>
       </c>
       <c r="D32">
-        <v>3.8</v>
+        <v>5.98</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3.8</v>
+        <v>5.98</v>
       </c>
       <c r="H32">
-        <v>42.93</v>
+        <v>36.87</v>
       </c>
       <c r="I32">
-        <v>3.8</v>
+        <v>5.98</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1932,13 +1932,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
-        <v>43467.625</v>
+        <v>40910.79166666666</v>
       </c>
       <c r="D33">
-        <v>3.9</v>
+        <v>5.67</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1947,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>3.9</v>
+        <v>5.67</v>
       </c>
       <c r="H33">
-        <v>42.93</v>
+        <v>36.87</v>
       </c>
       <c r="I33">
-        <v>3.9</v>
+        <v>5.67</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2">
-        <v>43467.66666666666</v>
+        <v>40910.83333333334</v>
       </c>
       <c r="D34">
-        <v>3.6</v>
+        <v>5.37</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1994,13 +1994,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>3.6</v>
+        <v>5.37</v>
       </c>
       <c r="H34">
-        <v>42.93</v>
+        <v>36.87</v>
       </c>
       <c r="I34">
-        <v>3.6</v>
+        <v>5.37</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2">
-        <v>43467.70833333334</v>
+        <v>40910.875</v>
       </c>
       <c r="D35">
-        <v>3.4</v>
+        <v>5.07</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>3.4</v>
+        <v>5.07</v>
       </c>
       <c r="H35">
-        <v>42.93</v>
+        <v>36.87</v>
       </c>
       <c r="I35">
-        <v>3.4</v>
+        <v>5.07</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2">
-        <v>43467.75</v>
+        <v>40910.91666666666</v>
       </c>
       <c r="D36">
-        <v>3.4</v>
+        <v>5.06</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>3.4</v>
+        <v>5.06</v>
       </c>
       <c r="H36">
-        <v>42.93</v>
+        <v>36.87</v>
       </c>
       <c r="I36">
-        <v>3.4</v>
+        <v>5.06</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2120,13 +2120,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2">
-        <v>43467.79166666666</v>
+        <v>40910.95833333334</v>
       </c>
       <c r="D37">
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="H37">
-        <v>42.93</v>
+        <v>36.87</v>
       </c>
       <c r="I37">
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2167,175 +2167,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>44</v>
-      </c>
-      <c r="C38" s="2">
-        <v>43467.83333333334</v>
+        <v>1062</v>
       </c>
       <c r="D38">
-        <v>2.9</v>
+        <v>355.11</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1246.46</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="G38">
-        <v>2.9</v>
+        <v>355.11</v>
       </c>
       <c r="H38">
-        <v>42.93</v>
+        <v>1448.659999999999</v>
       </c>
       <c r="I38">
-        <v>2.9</v>
+        <v>362.6598012351129</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>318.5742145564639</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>4.226215752</v>
       </c>
       <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>14</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2">
-        <v>43467.875</v>
-      </c>
-      <c r="D39">
-        <v>4.4</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>4.4</v>
-      </c>
-      <c r="H39">
-        <v>42.93</v>
-      </c>
-      <c r="I39">
-        <v>4.4</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>14</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>46</v>
-      </c>
-      <c r="C40" s="2">
-        <v>43467.91666666666</v>
-      </c>
-      <c r="D40">
-        <v>4.2</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>4.2</v>
-      </c>
-      <c r="H40">
-        <v>42.93</v>
-      </c>
-      <c r="I40">
-        <v>4.2</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>1053</v>
-      </c>
-      <c r="D41">
-        <v>72.60000000000001</v>
-      </c>
-      <c r="E41">
-        <v>10847.1</v>
-      </c>
-      <c r="F41">
-        <v>4809</v>
-      </c>
-      <c r="G41">
-        <v>72.60000000000001</v>
-      </c>
-      <c r="H41">
-        <v>4771.520000000002</v>
-      </c>
-      <c r="I41">
-        <v>127.5638308819269</v>
-      </c>
-      <c r="J41">
-        <v>336.9432169525971</v>
-      </c>
-      <c r="K41">
-        <v>4.610417184</v>
-      </c>
-      <c r="L41">
-        <v>1.48</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/CompleteResultWithoutCoolingEffect.xlsx
+++ b/CompleteResultWithoutCoolingEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Index</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,43 +475,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>40909.5</v>
+        <v>40909</v>
       </c>
       <c r="D2">
-        <v>12.38</v>
+        <v>10.78</v>
       </c>
       <c r="E2">
-        <v>226.13</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>12.38</v>
+        <v>10.78</v>
       </c>
       <c r="H2">
-        <v>83.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>13.67837605666693</v>
+        <v>10.78</v>
       </c>
       <c r="J2">
-        <v>29.60808832990133</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -522,37 +522,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>40909.54166666666</v>
+        <v>40909.04166666666</v>
       </c>
       <c r="D3">
-        <v>12.38</v>
+        <v>10.73</v>
       </c>
       <c r="E3">
-        <v>34.97</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>12.38</v>
+        <v>10.73</v>
       </c>
       <c r="H3">
-        <v>83.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.65122352936021</v>
+        <v>10.73</v>
       </c>
       <c r="J3">
-        <v>29.3729914243454</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -569,37 +569,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>40909.58333333334</v>
+        <v>40909.08333333334</v>
       </c>
       <c r="D4">
-        <v>12.39</v>
+        <v>10.68</v>
       </c>
       <c r="E4">
-        <v>85.92</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>12.39</v>
+        <v>10.68</v>
       </c>
       <c r="H4">
-        <v>33.09</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>12.94885130485153</v>
+        <v>10.68</v>
       </c>
       <c r="J4">
-        <v>29.44090015843292</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -616,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>40909.625</v>
+        <v>40909.125</v>
       </c>
       <c r="D5">
-        <v>12.39</v>
+        <v>10.63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>12.39</v>
+        <v>10.63</v>
       </c>
       <c r="H5">
-        <v>33.09</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>12.39</v>
+        <v>10.63</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -663,13 +663,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>40909.66666666666</v>
+        <v>40909.16666666666</v>
       </c>
       <c r="D6">
-        <v>12.31</v>
+        <v>10.7</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>12.31</v>
+        <v>10.7</v>
       </c>
       <c r="H6">
-        <v>33.09</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>12.31</v>
+        <v>10.7</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>40909.70833333334</v>
+        <v>40909.20833333334</v>
       </c>
       <c r="D7">
-        <v>12.23</v>
+        <v>10.76</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>12.23</v>
+        <v>10.76</v>
       </c>
       <c r="H7">
-        <v>33.09</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>12.23</v>
+        <v>10.76</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>40909.75</v>
+        <v>40909.25</v>
       </c>
       <c r="D8">
-        <v>12.15</v>
+        <v>10.83</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>12.15</v>
+        <v>10.83</v>
       </c>
       <c r="H8">
-        <v>33.09</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12.15</v>
+        <v>10.83</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -804,13 +804,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>40909.79166666666</v>
+        <v>40909.29166666666</v>
       </c>
       <c r="D9">
-        <v>12.19</v>
+        <v>11.09</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>12.19</v>
+        <v>11.09</v>
       </c>
       <c r="H9">
-        <v>33.09</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.19</v>
+        <v>11.09</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -851,34 +851,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>40909.83333333334</v>
+        <v>40909.33333333334</v>
       </c>
       <c r="D10">
-        <v>12.23</v>
+        <v>11.35</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>33.19</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>12.23</v>
+        <v>11.35</v>
       </c>
       <c r="H10">
-        <v>33.09</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12.23</v>
+        <v>11.61197153155058</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.070973614835263</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.189941748</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -898,43 +898,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>40909.875</v>
+        <v>40909.375</v>
       </c>
       <c r="D11">
-        <v>12.27</v>
+        <v>11.62</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>140.91</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G11">
-        <v>12.27</v>
+        <v>11.62</v>
       </c>
       <c r="H11">
-        <v>33.09</v>
+        <v>52.51</v>
       </c>
       <c r="I11">
-        <v>12.27</v>
+        <v>12.62949970223877</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.111882043951419</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.189941748</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -945,43 +945,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>40909.91666666666</v>
+        <v>40909.41666666666</v>
       </c>
       <c r="D12">
-        <v>12.18</v>
+        <v>11.87</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>167.06</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G12">
-        <v>12.18</v>
+        <v>11.87</v>
       </c>
       <c r="H12">
-        <v>33.09</v>
+        <v>61.85</v>
       </c>
       <c r="I12">
-        <v>12.18</v>
+        <v>13.05425320778483</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.128631270348827</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.189941748</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -992,43 +992,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>40909.95833333334</v>
+        <v>40909.45833333334</v>
       </c>
       <c r="D13">
-        <v>12.1</v>
+        <v>12.12</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>195.04</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G13">
-        <v>12.1</v>
+        <v>12.12</v>
       </c>
       <c r="H13">
-        <v>33.09</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="I13">
-        <v>12.1</v>
+        <v>13.4939642315918</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.146023290132684</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.189941748</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1039,43 +1039,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>40910</v>
+        <v>40909.5</v>
       </c>
       <c r="D14">
-        <v>12.02</v>
+        <v>12.38</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>226.13</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="G14">
-        <v>12.02</v>
+        <v>12.38</v>
       </c>
       <c r="H14">
-        <v>33.09</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I14">
-        <v>12.02</v>
+        <v>13.97433542962727</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.165094093949953</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.189941748</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1086,34 +1086,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>40910.04166666666</v>
+        <v>40909.54166666666</v>
       </c>
       <c r="D15">
-        <v>11.78</v>
+        <v>12.38</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>34.97</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>11.78</v>
+        <v>12.38</v>
       </c>
       <c r="H15">
-        <v>33.09</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I15">
-        <v>11.78</v>
+        <v>12.65727183612239</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.11093897326082</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.189941748</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1133,37 +1133,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>40910.08333333334</v>
+        <v>40909.58333333334</v>
       </c>
       <c r="D16">
-        <v>11.54</v>
+        <v>12.39</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>85.92</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G16">
-        <v>11.54</v>
+        <v>12.39</v>
       </c>
       <c r="H16">
-        <v>33.09</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I16">
-        <v>11.54</v>
+        <v>13.03619118111089</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.126469787655897</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.189941748</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -1180,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>40910.125</v>
+        <v>40909.625</v>
       </c>
       <c r="D17">
-        <v>11.29</v>
+        <v>12.39</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>11.29</v>
+        <v>12.39</v>
       </c>
       <c r="H17">
-        <v>33.09</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I17">
-        <v>11.29</v>
+        <v>12.39</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>40910.16666666666</v>
+        <v>40909.66666666666</v>
       </c>
       <c r="D18">
-        <v>11.02</v>
+        <v>12.31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>11.02</v>
+        <v>12.31</v>
       </c>
       <c r="H18">
-        <v>33.09</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I18">
-        <v>11.02</v>
+        <v>12.31</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>40910.20833333334</v>
+        <v>40909.70833333334</v>
       </c>
       <c r="D19">
-        <v>10.75</v>
+        <v>12.23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>10.75</v>
+        <v>12.23</v>
       </c>
       <c r="H19">
-        <v>33.09</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I19">
-        <v>10.75</v>
+        <v>12.23</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>40910.25</v>
+        <v>40909.75</v>
       </c>
       <c r="D20">
-        <v>10.48</v>
+        <v>12.15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>10.48</v>
+        <v>12.15</v>
       </c>
       <c r="H20">
-        <v>33.09</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I20">
-        <v>10.48</v>
+        <v>12.15</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>40910.29166666666</v>
+        <v>40909.79166666666</v>
       </c>
       <c r="D21">
-        <v>10.2</v>
+        <v>12.19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>10.2</v>
+        <v>12.19</v>
       </c>
       <c r="H21">
-        <v>33.09</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I21">
-        <v>10.2</v>
+        <v>12.19</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1415,37 +1415,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
-        <v>40910.33333333334</v>
+        <v>40909.83333333334</v>
       </c>
       <c r="D22">
-        <v>9.92</v>
+        <v>12.23</v>
       </c>
       <c r="E22">
-        <v>26.63</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>9.92</v>
+        <v>12.23</v>
       </c>
       <c r="H22">
-        <v>33.09</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I22">
-        <v>10.14402903214801</v>
+        <v>12.23</v>
       </c>
       <c r="J22">
-        <v>28.83500730307238</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -1462,37 +1462,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
-        <v>40910.375</v>
+        <v>40909.875</v>
       </c>
       <c r="D23">
-        <v>9.640000000000001</v>
+        <v>12.27</v>
       </c>
       <c r="E23">
-        <v>81.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>9.640000000000001</v>
+        <v>12.27</v>
       </c>
       <c r="H23">
-        <v>30.57</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I23">
-        <v>10.16065043215337</v>
+        <v>12.27</v>
       </c>
       <c r="J23">
-        <v>28.84239725501763</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
@@ -1509,37 +1509,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>40910.41666666666</v>
+        <v>40909.91666666666</v>
       </c>
       <c r="D24">
-        <v>9.6</v>
+        <v>12.18</v>
       </c>
       <c r="E24">
-        <v>164.69</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>9.6</v>
+        <v>12.18</v>
       </c>
       <c r="H24">
-        <v>60.14</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I24">
-        <v>10.55230486250287</v>
+        <v>12.18</v>
       </c>
       <c r="J24">
-        <v>28.9315902217382</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -1556,37 +1556,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>40910.45833333334</v>
+        <v>40909.95833333334</v>
       </c>
       <c r="D25">
-        <v>9.56</v>
+        <v>12.1</v>
       </c>
       <c r="E25">
-        <v>135.1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>9.56</v>
+        <v>12.1</v>
       </c>
       <c r="H25">
-        <v>50.12</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="I25">
-        <v>10.3659330945913</v>
+        <v>12.1</v>
       </c>
       <c r="J25">
-        <v>28.88990489319276</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.384201432</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -1603,598 +1603,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>36</v>
-      </c>
-      <c r="C26" s="2">
-        <v>40910.5</v>
+        <v>276</v>
       </c>
       <c r="D26">
-        <v>9.52</v>
+        <v>280.36</v>
       </c>
       <c r="E26">
-        <v>214.98</v>
+        <v>883.22</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="G26">
-        <v>9.52</v>
+        <v>280.36</v>
       </c>
       <c r="H26">
-        <v>78.03</v>
+        <v>1191.47</v>
       </c>
       <c r="I26">
-        <v>10.73321424565245</v>
+        <v>286.7074871200266</v>
       </c>
       <c r="J26">
-        <v>28.97364299903736</v>
+        <v>35.86001307413486</v>
       </c>
       <c r="K26">
-        <v>0.384201432</v>
+        <v>1.329592236</v>
       </c>
       <c r="L26">
-        <v>0.03</v>
-      </c>
-      <c r="M26" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>37</v>
-      </c>
-      <c r="C27" s="2">
-        <v>40910.54166666666</v>
-      </c>
-      <c r="D27">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="E27">
-        <v>176.95</v>
-      </c>
-      <c r="F27">
-        <v>83</v>
-      </c>
-      <c r="G27">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="H27">
-        <v>64.87</v>
-      </c>
-      <c r="I27">
-        <v>9.910872623414775</v>
-      </c>
-      <c r="J27">
-        <v>28.79561024301424</v>
-      </c>
-      <c r="K27">
-        <v>0.384201432</v>
-      </c>
-      <c r="L27">
-        <v>0.03</v>
-      </c>
-      <c r="M27" t="s">
-        <v>14</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>38</v>
-      </c>
-      <c r="C28" s="2">
-        <v>40910.58333333334</v>
-      </c>
-      <c r="D28">
-        <v>8.26</v>
-      </c>
-      <c r="E28">
-        <v>98.33</v>
-      </c>
-      <c r="F28">
-        <v>47</v>
-      </c>
-      <c r="G28">
-        <v>8.26</v>
-      </c>
-      <c r="H28">
-        <v>36.87</v>
-      </c>
-      <c r="I28">
-        <v>8.871857422355674</v>
-      </c>
-      <c r="J28">
-        <v>28.56934250166217</v>
-      </c>
-      <c r="K28">
-        <v>0.384201432</v>
-      </c>
-      <c r="L28">
-        <v>0.02</v>
-      </c>
-      <c r="M28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>39</v>
-      </c>
-      <c r="C29" s="2">
-        <v>40910.625</v>
-      </c>
-      <c r="D29">
-        <v>7.63</v>
-      </c>
-      <c r="E29">
-        <v>0.8</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>7.63</v>
-      </c>
-      <c r="H29">
-        <v>36.87</v>
-      </c>
-      <c r="I29">
-        <v>7.702488631415747</v>
-      </c>
-      <c r="J29">
-        <v>28.31473922704947</v>
-      </c>
-      <c r="K29">
-        <v>0.384201432</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>14</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>40</v>
-      </c>
-      <c r="C30" s="2">
-        <v>40910.66666666666</v>
-      </c>
-      <c r="D30">
-        <v>7.08</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>7.08</v>
-      </c>
-      <c r="H30">
-        <v>36.87</v>
-      </c>
-      <c r="I30">
-        <v>7.08</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>41</v>
-      </c>
-      <c r="C31" s="2">
-        <v>40910.70833333334</v>
-      </c>
-      <c r="D31">
-        <v>6.53</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>6.53</v>
-      </c>
-      <c r="H31">
-        <v>36.87</v>
-      </c>
-      <c r="I31">
-        <v>6.53</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>42</v>
-      </c>
-      <c r="C32" s="2">
-        <v>40910.75</v>
-      </c>
-      <c r="D32">
-        <v>5.98</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>5.98</v>
-      </c>
-      <c r="H32">
-        <v>36.87</v>
-      </c>
-      <c r="I32">
-        <v>5.98</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>14</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>43</v>
-      </c>
-      <c r="C33" s="2">
-        <v>40910.79166666666</v>
-      </c>
-      <c r="D33">
-        <v>5.67</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>5.67</v>
-      </c>
-      <c r="H33">
-        <v>36.87</v>
-      </c>
-      <c r="I33">
-        <v>5.67</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2">
-        <v>40910.83333333334</v>
-      </c>
-      <c r="D34">
-        <v>5.37</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>5.37</v>
-      </c>
-      <c r="H34">
-        <v>36.87</v>
-      </c>
-      <c r="I34">
-        <v>5.37</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2">
-        <v>40910.875</v>
-      </c>
-      <c r="D35">
-        <v>5.07</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>5.07</v>
-      </c>
-      <c r="H35">
-        <v>36.87</v>
-      </c>
-      <c r="I35">
-        <v>5.07</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>46</v>
-      </c>
-      <c r="C36" s="2">
-        <v>40910.91666666666</v>
-      </c>
-      <c r="D36">
-        <v>5.06</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>5.06</v>
-      </c>
-      <c r="H36">
-        <v>36.87</v>
-      </c>
-      <c r="I36">
-        <v>5.06</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>14</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>47</v>
-      </c>
-      <c r="C37" s="2">
-        <v>40910.95833333334</v>
-      </c>
-      <c r="D37">
-        <v>5.05</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>5.05</v>
-      </c>
-      <c r="H37">
-        <v>36.87</v>
-      </c>
-      <c r="I37">
-        <v>5.05</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>1062</v>
-      </c>
-      <c r="D38">
-        <v>355.11</v>
-      </c>
-      <c r="E38">
-        <v>1246.46</v>
-      </c>
-      <c r="F38">
-        <v>589</v>
-      </c>
-      <c r="G38">
-        <v>355.11</v>
-      </c>
-      <c r="H38">
-        <v>1448.659999999999</v>
-      </c>
-      <c r="I38">
-        <v>362.6598012351129</v>
-      </c>
-      <c r="J38">
-        <v>318.5742145564639</v>
-      </c>
-      <c r="K38">
-        <v>4.226215752</v>
-      </c>
-      <c r="L38">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/CompleteResultWithoutCoolingEffect.xlsx
+++ b/CompleteResultWithoutCoolingEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="15">
   <si>
     <t>Index</t>
   </si>
@@ -46,7 +46,7 @@
     <t>M_out</t>
   </si>
   <si>
-    <t>HeatFlux</t>
+    <t>HeatFlux_[kW/m^2]</t>
   </si>
   <si>
     <t>status</t>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C2" s="2">
-        <v>40909</v>
+        <v>41033.99930555555</v>
       </c>
       <c r="D2">
-        <v>10.78</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>10.78</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.78</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="C3" s="2">
-        <v>40909.04166666666</v>
+        <v>41034.04097222222</v>
       </c>
       <c r="D3">
-        <v>10.73</v>
+        <v>10.4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -537,13 +537,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>10.73</v>
+        <v>10.4</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.73</v>
+        <v>10.4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -569,13 +569,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3002</v>
       </c>
       <c r="C4" s="2">
-        <v>40909.08333333334</v>
+        <v>41034.08263888889</v>
       </c>
       <c r="D4">
-        <v>10.68</v>
+        <v>10.79</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -584,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>10.68</v>
+        <v>10.79</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.68</v>
+        <v>10.79</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -616,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>3003</v>
       </c>
       <c r="C5" s="2">
-        <v>40909.125</v>
+        <v>41034.12430555555</v>
       </c>
       <c r="D5">
-        <v>10.63</v>
+        <v>11.19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>10.63</v>
+        <v>11.19</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.63</v>
+        <v>11.19</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -663,13 +663,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3004</v>
       </c>
       <c r="C6" s="2">
-        <v>40909.16666666666</v>
+        <v>41034.16597222222</v>
       </c>
       <c r="D6">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -710,37 +710,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3005</v>
       </c>
       <c r="C7" s="2">
-        <v>40909.20833333334</v>
+        <v>41034.20763888889</v>
       </c>
       <c r="D7">
-        <v>10.76</v>
+        <v>11.14</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>50.99</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>10.76</v>
+        <v>11.14</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="I7">
-        <v>10.76</v>
+        <v>11.5043419678135</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>29.69328646918821</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -757,37 +757,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3006</v>
       </c>
       <c r="C8" s="2">
-        <v>40909.25</v>
+        <v>41034.24930555555</v>
       </c>
       <c r="D8">
-        <v>10.83</v>
+        <v>11.12</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>10.83</v>
+        <v>11.12</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>25.22</v>
       </c>
       <c r="I8">
-        <v>10.83</v>
+        <v>11.56488388327131</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>29.70754316192439</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -804,37 +804,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>3007</v>
       </c>
       <c r="C9" s="2">
-        <v>40909.29166666666</v>
+        <v>41034.29097222222</v>
       </c>
       <c r="D9">
-        <v>11.09</v>
+        <v>11.55</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>84.81</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G9">
-        <v>11.09</v>
+        <v>11.55</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>32.23</v>
       </c>
       <c r="I9">
-        <v>11.09</v>
+        <v>12.09741605767437</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>29.82510571327331</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>3008</v>
       </c>
       <c r="C10" s="2">
-        <v>40909.33333333334</v>
+        <v>41034.33263888889</v>
       </c>
       <c r="D10">
-        <v>11.35</v>
+        <v>11.97</v>
       </c>
       <c r="E10">
-        <v>33.19</v>
+        <v>158.94</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G10">
-        <v>11.35</v>
+        <v>11.97</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>59.6</v>
       </c>
       <c r="I10">
-        <v>11.61197153155058</v>
+        <v>12.9173349384784</v>
       </c>
       <c r="J10">
-        <v>5.070973614835263</v>
+        <v>30.009743353873</v>
       </c>
       <c r="K10">
-        <v>0.189941748</v>
+        <v>0.3842016</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,37 +898,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>3009</v>
       </c>
       <c r="C11" s="2">
-        <v>40909.375</v>
+        <v>41034.37430555555</v>
       </c>
       <c r="D11">
-        <v>11.62</v>
+        <v>12.4</v>
       </c>
       <c r="E11">
-        <v>140.91</v>
+        <v>229.92</v>
       </c>
       <c r="F11">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="G11">
-        <v>11.62</v>
+        <v>12.4</v>
       </c>
       <c r="H11">
-        <v>52.51</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="I11">
-        <v>12.62949970223877</v>
+        <v>13.72314733370996</v>
       </c>
       <c r="J11">
-        <v>5.111882043951419</v>
+        <v>30.19150968169126</v>
       </c>
       <c r="K11">
-        <v>0.189941748</v>
+        <v>0.3842016</v>
       </c>
       <c r="L11">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -945,37 +945,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>3010</v>
       </c>
       <c r="C12" s="2">
-        <v>40909.41666666666</v>
+        <v>41034.41597222222</v>
       </c>
       <c r="D12">
-        <v>11.87</v>
+        <v>12.73</v>
       </c>
       <c r="E12">
-        <v>167.06</v>
+        <v>207.81</v>
       </c>
       <c r="F12">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G12">
-        <v>11.87</v>
+        <v>12.73</v>
       </c>
       <c r="H12">
-        <v>61.85</v>
+        <v>77.58</v>
       </c>
       <c r="I12">
-        <v>13.05425320778483</v>
+        <v>13.94014614069732</v>
       </c>
       <c r="J12">
-        <v>5.128631270348827</v>
+        <v>30.23779315201919</v>
       </c>
       <c r="K12">
-        <v>0.189941748</v>
+        <v>0.3842016</v>
       </c>
       <c r="L12">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -992,37 +992,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>3011</v>
       </c>
       <c r="C13" s="2">
-        <v>40909.45833333334</v>
+        <v>41034.45763888889</v>
       </c>
       <c r="D13">
-        <v>12.12</v>
+        <v>13.07</v>
       </c>
       <c r="E13">
-        <v>195.04</v>
+        <v>260.82</v>
       </c>
       <c r="F13">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="G13">
-        <v>12.12</v>
+        <v>13.07</v>
       </c>
       <c r="H13">
-        <v>71.98999999999999</v>
+        <v>96.19</v>
       </c>
       <c r="I13">
-        <v>13.4939642315918</v>
+        <v>14.55200505217277</v>
       </c>
       <c r="J13">
-        <v>5.146023290132684</v>
+        <v>30.37614167779422</v>
       </c>
       <c r="K13">
-        <v>0.189941748</v>
+        <v>0.3842016</v>
       </c>
       <c r="L13">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1039,37 +1039,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>3012</v>
       </c>
       <c r="C14" s="2">
-        <v>40909.5</v>
+        <v>41034.49930555555</v>
       </c>
       <c r="D14">
-        <v>12.38</v>
+        <v>13.41</v>
       </c>
       <c r="E14">
-        <v>226.13</v>
+        <v>247.78</v>
       </c>
       <c r="F14">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G14">
-        <v>12.38</v>
+        <v>13.41</v>
       </c>
       <c r="H14">
-        <v>83.76000000000001</v>
+        <v>91.53</v>
       </c>
       <c r="I14">
-        <v>13.97433542962727</v>
+        <v>14.82406893588671</v>
       </c>
       <c r="J14">
-        <v>5.165094093949953</v>
+        <v>30.43531218650013</v>
       </c>
       <c r="K14">
-        <v>0.189941748</v>
+        <v>0.3842016</v>
       </c>
       <c r="L14">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -1086,43 +1086,43 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>3013</v>
+      </c>
+      <c r="C15" s="2">
+        <v>41034.54097222222</v>
+      </c>
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
-        <v>40909.54166666666</v>
-      </c>
-      <c r="D15">
-        <v>12.38</v>
-      </c>
       <c r="E15">
-        <v>34.97</v>
+        <v>351.45</v>
       </c>
       <c r="F15">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="G15">
-        <v>12.38</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>83.76000000000001</v>
+        <v>128.91</v>
       </c>
       <c r="I15">
-        <v>12.65727183612239</v>
+        <v>14.95934359991656</v>
       </c>
       <c r="J15">
-        <v>5.11093897326082</v>
+        <v>30.47230141969619</v>
       </c>
       <c r="K15">
-        <v>0.189941748</v>
+        <v>0.3842016</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1133,43 +1133,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>3014</v>
       </c>
       <c r="C16" s="2">
-        <v>40909.58333333334</v>
+        <v>41034.58263888889</v>
       </c>
       <c r="D16">
-        <v>12.39</v>
+        <v>12.58</v>
       </c>
       <c r="E16">
-        <v>85.92</v>
+        <v>186.24</v>
       </c>
       <c r="F16">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="G16">
-        <v>12.39</v>
+        <v>12.58</v>
       </c>
       <c r="H16">
-        <v>83.76000000000001</v>
+        <v>68.87</v>
       </c>
       <c r="I16">
-        <v>13.03619118111089</v>
+        <v>13.66275767699386</v>
       </c>
       <c r="J16">
-        <v>5.126469787655897</v>
+        <v>30.17515593736625</v>
       </c>
       <c r="K16">
-        <v>0.189941748</v>
+        <v>0.3842016</v>
       </c>
       <c r="L16">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1180,37 +1180,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>3015</v>
       </c>
       <c r="C17" s="2">
-        <v>40909.625</v>
+        <v>41034.62430555555</v>
       </c>
       <c r="D17">
-        <v>12.39</v>
+        <v>12.17</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>82.86</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>12.39</v>
+        <v>12.17</v>
       </c>
       <c r="H17">
-        <v>83.76000000000001</v>
+        <v>31.44</v>
       </c>
       <c r="I17">
-        <v>12.39</v>
+        <v>12.70617031950241</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>29.95811403304019</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -1227,37 +1227,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>3016</v>
       </c>
       <c r="C18" s="2">
-        <v>40909.66666666666</v>
+        <v>41034.66597222222</v>
       </c>
       <c r="D18">
-        <v>12.31</v>
+        <v>11.59</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>63.35</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G18">
-        <v>12.31</v>
+        <v>11.59</v>
       </c>
       <c r="H18">
-        <v>83.76000000000001</v>
+        <v>31.44</v>
       </c>
       <c r="I18">
-        <v>12.31</v>
+        <v>12.02349195697246</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>29.80748446683567</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -1274,37 +1274,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>3017</v>
       </c>
       <c r="C19" s="2">
-        <v>40909.70833333334</v>
+        <v>41034.70763888889</v>
       </c>
       <c r="D19">
-        <v>12.23</v>
+        <v>11.01</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>40.45</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>12.23</v>
+        <v>11.01</v>
       </c>
       <c r="H19">
-        <v>83.76000000000001</v>
+        <v>31.44</v>
       </c>
       <c r="I19">
-        <v>12.23</v>
+        <v>11.31709291673428</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>29.6517450158881</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -1321,34 +1321,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>3018</v>
       </c>
       <c r="C20" s="2">
-        <v>40909.75</v>
+        <v>41034.74930555555</v>
       </c>
       <c r="D20">
-        <v>12.15</v>
+        <v>10.44</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>11.18</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>12.15</v>
+        <v>10.44</v>
       </c>
       <c r="H20">
-        <v>83.76000000000001</v>
+        <v>31.44</v>
       </c>
       <c r="I20">
-        <v>12.15</v>
+        <v>10.572839403633</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>29.48757879478282</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>3019</v>
       </c>
       <c r="C21" s="2">
-        <v>40909.79166666666</v>
+        <v>41034.79097222222</v>
       </c>
       <c r="D21">
-        <v>12.19</v>
+        <v>10.09</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>12.19</v>
+        <v>10.09</v>
       </c>
       <c r="H21">
-        <v>83.76000000000001</v>
+        <v>31.44</v>
       </c>
       <c r="I21">
-        <v>12.19</v>
+        <v>10.09</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>3020</v>
       </c>
       <c r="C22" s="2">
-        <v>40909.83333333334</v>
+        <v>41034.83263888889</v>
       </c>
       <c r="D22">
-        <v>12.23</v>
+        <v>9.74</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>12.23</v>
+        <v>9.74</v>
       </c>
       <c r="H22">
-        <v>83.76000000000001</v>
+        <v>31.44</v>
       </c>
       <c r="I22">
-        <v>12.23</v>
+        <v>9.74</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>3021</v>
       </c>
       <c r="C23" s="2">
-        <v>40909.875</v>
+        <v>41034.87430555555</v>
       </c>
       <c r="D23">
-        <v>12.27</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>12.27</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="H23">
-        <v>83.76000000000001</v>
+        <v>31.44</v>
       </c>
       <c r="I23">
-        <v>12.27</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>3022</v>
       </c>
       <c r="C24" s="2">
-        <v>40909.91666666666</v>
+        <v>41034.91597222222</v>
       </c>
       <c r="D24">
-        <v>12.18</v>
+        <v>9.19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1524,13 +1524,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>12.18</v>
+        <v>9.19</v>
       </c>
       <c r="H24">
-        <v>83.76000000000001</v>
+        <v>31.44</v>
       </c>
       <c r="I24">
-        <v>12.18</v>
+        <v>9.19</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1556,13 +1556,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>3023</v>
       </c>
       <c r="C25" s="2">
-        <v>40909.95833333334</v>
+        <v>41034.95763888889</v>
       </c>
       <c r="D25">
-        <v>12.1</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1571,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>12.1</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>83.76000000000001</v>
+        <v>31.44</v>
       </c>
       <c r="I25">
-        <v>12.1</v>
+        <v>9</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1603,34 +1603,4546 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>276</v>
+        <v>3024</v>
+      </c>
+      <c r="C26" s="2">
+        <v>41034.99930555555</v>
       </c>
       <c r="D26">
-        <v>280.36</v>
+        <v>8.81</v>
       </c>
       <c r="E26">
-        <v>883.22</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>280.36</v>
+        <v>8.81</v>
       </c>
       <c r="H26">
-        <v>1191.47</v>
+        <v>31.44</v>
       </c>
       <c r="I26">
-        <v>286.7074871200266</v>
+        <v>8.81</v>
       </c>
       <c r="J26">
-        <v>35.86001307413486</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1.329592236</v>
+        <v>0</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3025</v>
+      </c>
+      <c r="C27" s="2">
+        <v>41035.04097222222</v>
+      </c>
+      <c r="D27">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="H27">
+        <v>31.44</v>
+      </c>
+      <c r="I27">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3026</v>
+      </c>
+      <c r="C28" s="2">
+        <v>41035.08263888889</v>
+      </c>
+      <c r="D28">
+        <v>9.09</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>9.09</v>
+      </c>
+      <c r="H28">
+        <v>31.44</v>
+      </c>
+      <c r="I28">
+        <v>9.09</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3027</v>
+      </c>
+      <c r="C29" s="2">
+        <v>41035.12430555555</v>
+      </c>
+      <c r="D29">
+        <v>9.23</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>9.23</v>
+      </c>
+      <c r="H29">
+        <v>31.44</v>
+      </c>
+      <c r="I29">
+        <v>9.23</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3028</v>
+      </c>
+      <c r="C30" s="2">
+        <v>41035.16597222222</v>
+      </c>
+      <c r="D30">
+        <v>9.27</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>9.27</v>
+      </c>
+      <c r="H30">
+        <v>31.44</v>
+      </c>
+      <c r="I30">
+        <v>9.27</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3029</v>
+      </c>
+      <c r="C31" s="2">
+        <v>41035.20763888889</v>
+      </c>
+      <c r="D31">
+        <v>9.31</v>
+      </c>
+      <c r="E31">
+        <v>116.25</v>
+      </c>
+      <c r="F31">
+        <v>55</v>
+      </c>
+      <c r="G31">
+        <v>9.31</v>
+      </c>
+      <c r="H31">
+        <v>43.06</v>
+      </c>
+      <c r="I31">
+        <v>10.0142577433511</v>
+      </c>
+      <c r="J31">
+        <v>29.37386270587805</v>
+      </c>
+      <c r="K31">
+        <v>0.3842016</v>
+      </c>
+      <c r="L31">
+        <v>0.02</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3030</v>
+      </c>
+      <c r="C32" s="2">
+        <v>41035.24930555555</v>
+      </c>
+      <c r="D32">
+        <v>9.35</v>
+      </c>
+      <c r="E32">
+        <v>71.2</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>9.35</v>
+      </c>
+      <c r="H32">
+        <v>26.67</v>
+      </c>
+      <c r="I32">
+        <v>9.814998540505087</v>
+      </c>
+      <c r="J32">
+        <v>29.32758213908972</v>
+      </c>
+      <c r="K32">
+        <v>0.3842016</v>
+      </c>
+      <c r="L32">
+        <v>0.01</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>3031</v>
+      </c>
+      <c r="C33" s="2">
+        <v>41035.29097222222</v>
+      </c>
+      <c r="D33">
+        <v>10.04</v>
+      </c>
+      <c r="E33">
+        <v>89.05</v>
+      </c>
+      <c r="F33">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>10.04</v>
+      </c>
+      <c r="H33">
+        <v>33.8</v>
+      </c>
+      <c r="I33">
+        <v>10.60941508447138</v>
+      </c>
+      <c r="J33">
+        <v>29.50124692406966</v>
+      </c>
+      <c r="K33">
+        <v>0.3842016</v>
+      </c>
+      <c r="L33">
+        <v>0.02</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>3032</v>
+      </c>
+      <c r="C34" s="2">
+        <v>41035.33263888889</v>
+      </c>
+      <c r="D34">
+        <v>10.72</v>
+      </c>
+      <c r="E34">
+        <v>302.18</v>
+      </c>
+      <c r="F34">
+        <v>141</v>
+      </c>
+      <c r="G34">
+        <v>10.72</v>
+      </c>
+      <c r="H34">
+        <v>110.03</v>
+      </c>
+      <c r="I34">
+        <v>12.40278817880426</v>
+      </c>
+      <c r="J34">
+        <v>29.90660477813431</v>
+      </c>
+      <c r="K34">
+        <v>0.3842016</v>
+      </c>
+      <c r="L34">
+        <v>0.05</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>3033</v>
+      </c>
+      <c r="C35" s="2">
+        <v>41035.37430555555</v>
+      </c>
+      <c r="D35">
+        <v>11.41</v>
+      </c>
+      <c r="E35">
+        <v>519.24</v>
+      </c>
+      <c r="F35">
+        <v>241</v>
+      </c>
+      <c r="G35">
+        <v>11.41</v>
+      </c>
+      <c r="H35">
+        <v>187.74</v>
+      </c>
+      <c r="I35">
+        <v>14.22780136318227</v>
+      </c>
+      <c r="J35">
+        <v>30.32175400838369</v>
+      </c>
+      <c r="K35">
+        <v>0.3842016</v>
+      </c>
+      <c r="L35">
         <v>0.08</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3034</v>
+      </c>
+      <c r="C36" s="2">
+        <v>41035.41597222222</v>
+      </c>
+      <c r="D36">
+        <v>11.83</v>
+      </c>
+      <c r="E36">
+        <v>225.06</v>
+      </c>
+      <c r="F36">
+        <v>106</v>
+      </c>
+      <c r="G36">
+        <v>11.83</v>
+      </c>
+      <c r="H36">
+        <v>82.88</v>
+      </c>
+      <c r="I36">
+        <v>13.11708347062489</v>
+      </c>
+      <c r="J36">
+        <v>30.05795608468334</v>
+      </c>
+      <c r="K36">
+        <v>0.3842016</v>
+      </c>
+      <c r="L36">
+        <v>0.03</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3035</v>
+      </c>
+      <c r="C37" s="2">
+        <v>41035.45763888889</v>
+      </c>
+      <c r="D37">
+        <v>12.25</v>
+      </c>
+      <c r="E37">
+        <v>531.62</v>
+      </c>
+      <c r="F37">
+        <v>248</v>
+      </c>
+      <c r="G37">
+        <v>12.25</v>
+      </c>
+      <c r="H37">
+        <v>193.32</v>
+      </c>
+      <c r="I37">
+        <v>15.1504652869819</v>
+      </c>
+      <c r="J37">
+        <v>30.52628009507012</v>
+      </c>
+      <c r="K37">
+        <v>0.3842016</v>
+      </c>
+      <c r="L37">
+        <v>0.08</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3036</v>
+      </c>
+      <c r="C38" s="2">
+        <v>41035.49930555555</v>
+      </c>
+      <c r="D38">
+        <v>12.67</v>
+      </c>
+      <c r="E38">
+        <v>352.03</v>
+      </c>
+      <c r="F38">
+        <v>165</v>
+      </c>
+      <c r="G38">
+        <v>12.67</v>
+      </c>
+      <c r="H38">
+        <v>128.81</v>
+      </c>
+      <c r="I38">
+        <v>14.62857595775597</v>
+      </c>
+      <c r="J38">
+        <v>30.39905134691701</v>
+      </c>
+      <c r="K38">
+        <v>0.3842016</v>
+      </c>
+      <c r="L38">
+        <v>0.05</v>
+      </c>
+      <c r="M38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>3037</v>
+      </c>
+      <c r="C39" s="2">
+        <v>41035.54097222222</v>
+      </c>
+      <c r="D39">
+        <v>12.37</v>
+      </c>
+      <c r="E39">
+        <v>266.85</v>
+      </c>
+      <c r="F39">
+        <v>126</v>
+      </c>
+      <c r="G39">
+        <v>12.37</v>
+      </c>
+      <c r="H39">
+        <v>98.55</v>
+      </c>
+      <c r="I39">
+        <v>13.88617452968879</v>
+      </c>
+      <c r="J39">
+        <v>30.2298853369329</v>
+      </c>
+      <c r="K39">
+        <v>0.3842016</v>
+      </c>
+      <c r="L39">
+        <v>0.04</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3038</v>
+      </c>
+      <c r="C40" s="2">
+        <v>41035.58263888889</v>
+      </c>
+      <c r="D40">
+        <v>12.06</v>
+      </c>
+      <c r="E40">
+        <v>271.3</v>
+      </c>
+      <c r="F40">
+        <v>127</v>
+      </c>
+      <c r="G40">
+        <v>12.06</v>
+      </c>
+      <c r="H40">
+        <v>99.19</v>
+      </c>
+      <c r="I40">
+        <v>13.5850528079535</v>
+      </c>
+      <c r="J40">
+        <v>30.16383336861201</v>
+      </c>
+      <c r="K40">
+        <v>0.3842016</v>
+      </c>
+      <c r="L40">
+        <v>0.04</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3039</v>
+      </c>
+      <c r="C41" s="2">
+        <v>41035.62430555555</v>
+      </c>
+      <c r="D41">
+        <v>11.76</v>
+      </c>
+      <c r="E41">
+        <v>111.96</v>
+      </c>
+      <c r="F41">
+        <v>54</v>
+      </c>
+      <c r="G41">
+        <v>11.76</v>
+      </c>
+      <c r="H41">
+        <v>42.43</v>
+      </c>
+      <c r="I41">
+        <v>12.45639857884629</v>
+      </c>
+      <c r="J41">
+        <v>29.90555751719576</v>
+      </c>
+      <c r="K41">
+        <v>0.3842016</v>
+      </c>
+      <c r="L41">
+        <v>0.02</v>
+      </c>
+      <c r="M41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>3040</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41035.66597222222</v>
+      </c>
+      <c r="D42">
+        <v>11.38</v>
+      </c>
+      <c r="E42">
+        <v>113.96</v>
+      </c>
+      <c r="F42">
+        <v>55</v>
+      </c>
+      <c r="G42">
+        <v>11.38</v>
+      </c>
+      <c r="H42">
+        <v>43.22</v>
+      </c>
+      <c r="I42">
+        <v>12.08772648087989</v>
+      </c>
+      <c r="J42">
+        <v>29.8251071685989</v>
+      </c>
+      <c r="K42">
+        <v>0.3842016</v>
+      </c>
+      <c r="L42">
+        <v>0.02</v>
+      </c>
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3041</v>
+      </c>
+      <c r="C43" s="2">
+        <v>41035.70763888889</v>
+      </c>
+      <c r="D43">
+        <v>11.01</v>
+      </c>
+      <c r="E43">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="F43">
+        <v>36</v>
+      </c>
+      <c r="G43">
+        <v>11.01</v>
+      </c>
+      <c r="H43">
+        <v>28.31</v>
+      </c>
+      <c r="I43">
+        <v>11.49993027815725</v>
+      </c>
+      <c r="J43">
+        <v>29.69398043020372</v>
+      </c>
+      <c r="K43">
+        <v>0.3842016</v>
+      </c>
+      <c r="L43">
+        <v>0.01</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3042</v>
+      </c>
+      <c r="C44" s="2">
+        <v>41035.74930555555</v>
+      </c>
+      <c r="D44">
+        <v>10.64</v>
+      </c>
+      <c r="E44">
+        <v>38.77</v>
+      </c>
+      <c r="F44">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>10.64</v>
+      </c>
+      <c r="H44">
+        <v>28.31</v>
+      </c>
+      <c r="I44">
+        <v>10.93501647950853</v>
+      </c>
+      <c r="J44">
+        <v>29.56842965859492</v>
+      </c>
+      <c r="K44">
+        <v>0.3842016</v>
+      </c>
+      <c r="L44">
+        <v>0.01</v>
+      </c>
+      <c r="M44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>3043</v>
+      </c>
+      <c r="C45" s="2">
+        <v>41035.79097222222</v>
+      </c>
+      <c r="D45">
+        <v>10.19</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>10.19</v>
+      </c>
+      <c r="H45">
+        <v>28.31</v>
+      </c>
+      <c r="I45">
+        <v>10.19</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3044</v>
+      </c>
+      <c r="C46" s="2">
+        <v>41035.83263888889</v>
+      </c>
+      <c r="D46">
+        <v>9.74</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>9.74</v>
+      </c>
+      <c r="H46">
+        <v>28.31</v>
+      </c>
+      <c r="I46">
+        <v>9.74</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3045</v>
+      </c>
+      <c r="C47" s="2">
+        <v>41035.87430555555</v>
+      </c>
+      <c r="D47">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="H47">
+        <v>28.31</v>
+      </c>
+      <c r="I47">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3046</v>
+      </c>
+      <c r="C48" s="2">
+        <v>41035.91597222222</v>
+      </c>
+      <c r="D48">
+        <v>9.09</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>9.09</v>
+      </c>
+      <c r="H48">
+        <v>28.31</v>
+      </c>
+      <c r="I48">
+        <v>9.09</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3047</v>
+      </c>
+      <c r="C49" s="2">
+        <v>41035.95763888889</v>
+      </c>
+      <c r="D49">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="H49">
+        <v>28.31</v>
+      </c>
+      <c r="I49">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3048</v>
+      </c>
+      <c r="C50" s="2">
+        <v>41035.99930555555</v>
+      </c>
+      <c r="D50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H50">
+        <v>28.31</v>
+      </c>
+      <c r="I50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>3049</v>
+      </c>
+      <c r="C51" s="2">
+        <v>41036.04097222222</v>
+      </c>
+      <c r="D51">
+        <v>8.4</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>8.4</v>
+      </c>
+      <c r="H51">
+        <v>28.31</v>
+      </c>
+      <c r="I51">
+        <v>8.4</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3050</v>
+      </c>
+      <c r="C52" s="2">
+        <v>41036.08263888889</v>
+      </c>
+      <c r="D52">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="H52">
+        <v>28.31</v>
+      </c>
+      <c r="I52">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3051</v>
+      </c>
+      <c r="C53" s="2">
+        <v>41036.12430555555</v>
+      </c>
+      <c r="D53">
+        <v>7.81</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>7.81</v>
+      </c>
+      <c r="H53">
+        <v>28.31</v>
+      </c>
+      <c r="I53">
+        <v>7.81</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3052</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41036.16597222222</v>
+      </c>
+      <c r="D54">
+        <v>7.97</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>7.97</v>
+      </c>
+      <c r="H54">
+        <v>28.31</v>
+      </c>
+      <c r="I54">
+        <v>7.97</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3053</v>
+      </c>
+      <c r="C55" s="2">
+        <v>41036.20763888889</v>
+      </c>
+      <c r="D55">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="E55">
+        <v>18.15</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="H55">
+        <v>28.31</v>
+      </c>
+      <c r="I55">
+        <v>8.318790819977892</v>
+      </c>
+      <c r="J55">
+        <v>29.00078406953502</v>
+      </c>
+      <c r="K55">
+        <v>0.3842016</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>3054</v>
+      </c>
+      <c r="C56" s="2">
+        <v>41036.24930555555</v>
+      </c>
+      <c r="D56">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E56">
+        <v>80.52</v>
+      </c>
+      <c r="F56">
+        <v>38</v>
+      </c>
+      <c r="G56">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H56">
+        <v>29.74</v>
+      </c>
+      <c r="I56">
+        <v>8.809250888761767</v>
+      </c>
+      <c r="J56">
+        <v>29.1107653617759</v>
+      </c>
+      <c r="K56">
+        <v>0.3842016</v>
+      </c>
+      <c r="L56">
+        <v>0.01</v>
+      </c>
+      <c r="M56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>3055</v>
+      </c>
+      <c r="C57" s="2">
+        <v>41036.29097222222</v>
+      </c>
+      <c r="D57">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E57">
+        <v>133.06</v>
+      </c>
+      <c r="F57">
+        <v>63</v>
+      </c>
+      <c r="G57">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H57">
+        <v>49.32</v>
+      </c>
+      <c r="I57">
+        <v>9.995690622421989</v>
+      </c>
+      <c r="J57">
+        <v>29.37099643017897</v>
+      </c>
+      <c r="K57">
+        <v>0.3842016</v>
+      </c>
+      <c r="L57">
+        <v>0.02</v>
+      </c>
+      <c r="M57" t="s">
+        <v>14</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>3056</v>
+      </c>
+      <c r="C58" s="2">
+        <v>41036.33263888889</v>
+      </c>
+      <c r="D58">
+        <v>10.11</v>
+      </c>
+      <c r="E58">
+        <v>189.38</v>
+      </c>
+      <c r="F58">
+        <v>89</v>
+      </c>
+      <c r="G58">
+        <v>10.11</v>
+      </c>
+      <c r="H58">
+        <v>69.56</v>
+      </c>
+      <c r="I58">
+        <v>11.20177017379899</v>
+      </c>
+      <c r="J58">
+        <v>29.63680130592874</v>
+      </c>
+      <c r="K58">
+        <v>0.3842016</v>
+      </c>
+      <c r="L58">
+        <v>0.03</v>
+      </c>
+      <c r="M58" t="s">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>3057</v>
+      </c>
+      <c r="C59" s="2">
+        <v>41036.37430555555</v>
+      </c>
+      <c r="D59">
+        <v>11.01</v>
+      </c>
+      <c r="E59">
+        <v>236.37</v>
+      </c>
+      <c r="F59">
+        <v>111</v>
+      </c>
+      <c r="G59">
+        <v>11.01</v>
+      </c>
+      <c r="H59">
+        <v>86.72</v>
+      </c>
+      <c r="I59">
+        <v>12.35296212053345</v>
+      </c>
+      <c r="J59">
+        <v>29.89124442813283</v>
+      </c>
+      <c r="K59">
+        <v>0.3842016</v>
+      </c>
+      <c r="L59">
+        <v>0.04</v>
+      </c>
+      <c r="M59" t="s">
+        <v>14</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>3058</v>
+      </c>
+      <c r="C60" s="2">
+        <v>41036.41597222222</v>
+      </c>
+      <c r="D60">
+        <v>11.88</v>
+      </c>
+      <c r="E60">
+        <v>425.21</v>
+      </c>
+      <c r="F60">
+        <v>199</v>
+      </c>
+      <c r="G60">
+        <v>11.88</v>
+      </c>
+      <c r="H60">
+        <v>155.21</v>
+      </c>
+      <c r="I60">
+        <v>14.2245897958976</v>
+      </c>
+      <c r="J60">
+        <v>30.31470777093948</v>
+      </c>
+      <c r="K60">
+        <v>0.3842016</v>
+      </c>
+      <c r="L60">
+        <v>0.06</v>
+      </c>
+      <c r="M60" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3059</v>
+      </c>
+      <c r="C61" s="2">
+        <v>41036.45763888889</v>
+      </c>
+      <c r="D61">
+        <v>12.76</v>
+      </c>
+      <c r="E61">
+        <v>762.88</v>
+      </c>
+      <c r="F61">
+        <v>361</v>
+      </c>
+      <c r="G61">
+        <v>12.76</v>
+      </c>
+      <c r="H61">
+        <v>281.6</v>
+      </c>
+      <c r="I61">
+        <v>16.95507239142</v>
+      </c>
+      <c r="J61">
+        <v>30.94172340121074</v>
+      </c>
+      <c r="K61">
+        <v>0.3842016</v>
+      </c>
+      <c r="L61">
+        <v>0.11</v>
+      </c>
+      <c r="M61" t="s">
+        <v>14</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3060</v>
+      </c>
+      <c r="C62" s="2">
+        <v>41036.49930555555</v>
+      </c>
+      <c r="D62">
+        <v>13.64</v>
+      </c>
+      <c r="E62">
+        <v>900</v>
+      </c>
+      <c r="F62">
+        <v>431</v>
+      </c>
+      <c r="G62">
+        <v>13.64</v>
+      </c>
+      <c r="H62">
+        <v>336.55</v>
+      </c>
+      <c r="I62">
+        <v>18.64253452210357</v>
+      </c>
+      <c r="J62">
+        <v>31.3275789821697</v>
+      </c>
+      <c r="K62">
+        <v>0.3842016</v>
+      </c>
+      <c r="L62">
+        <v>0.13</v>
+      </c>
+      <c r="M62" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3061</v>
+      </c>
+      <c r="C63" s="2">
+        <v>41036.54097222222</v>
+      </c>
+      <c r="D63">
+        <v>13.82</v>
+      </c>
+      <c r="E63">
+        <v>1081.75</v>
+      </c>
+      <c r="F63">
+        <v>523</v>
+      </c>
+      <c r="G63">
+        <v>13.82</v>
+      </c>
+      <c r="H63">
+        <v>408.66</v>
+      </c>
+      <c r="I63">
+        <v>19.88055134314141</v>
+      </c>
+      <c r="J63">
+        <v>31.61743040357457</v>
+      </c>
+      <c r="K63">
+        <v>0.3842016</v>
+      </c>
+      <c r="L63">
+        <v>0.16</v>
+      </c>
+      <c r="M63" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3062</v>
+      </c>
+      <c r="C64" s="2">
+        <v>41036.58263888889</v>
+      </c>
+      <c r="D64">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>1101.12</v>
+      </c>
+      <c r="F64">
+        <v>533</v>
+      </c>
+      <c r="G64">
+        <v>14</v>
+      </c>
+      <c r="H64">
+        <v>416.52</v>
+      </c>
+      <c r="I64">
+        <v>20.17594367842059</v>
+      </c>
+      <c r="J64">
+        <v>31.68524347285556</v>
+      </c>
+      <c r="K64">
+        <v>0.3842016</v>
+      </c>
+      <c r="L64">
+        <v>0.17</v>
+      </c>
+      <c r="M64" t="s">
+        <v>14</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3063</v>
+      </c>
+      <c r="C65" s="2">
+        <v>41036.62430555555</v>
+      </c>
+      <c r="D65">
+        <v>14.18</v>
+      </c>
+      <c r="E65">
+        <v>707.47</v>
+      </c>
+      <c r="F65">
+        <v>338</v>
+      </c>
+      <c r="G65">
+        <v>14.18</v>
+      </c>
+      <c r="H65">
+        <v>264.08</v>
+      </c>
+      <c r="I65">
+        <v>18.1209515737641</v>
+      </c>
+      <c r="J65">
+        <v>31.19852128103894</v>
+      </c>
+      <c r="K65">
+        <v>0.3842016</v>
+      </c>
+      <c r="L65">
+        <v>0.11</v>
+      </c>
+      <c r="M65" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3064</v>
+      </c>
+      <c r="C66" s="2">
+        <v>41036.66597222222</v>
+      </c>
+      <c r="D66">
+        <v>13.91</v>
+      </c>
+      <c r="E66">
+        <v>432.31</v>
+      </c>
+      <c r="F66">
+        <v>205</v>
+      </c>
+      <c r="G66">
+        <v>13.91</v>
+      </c>
+      <c r="H66">
+        <v>160.23</v>
+      </c>
+      <c r="I66">
+        <v>16.32975073642922</v>
+      </c>
+      <c r="J66">
+        <v>30.78114400001616</v>
+      </c>
+      <c r="K66">
+        <v>0.3842016</v>
+      </c>
+      <c r="L66">
+        <v>0.06</v>
+      </c>
+      <c r="M66" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>3065</v>
+      </c>
+      <c r="C67" s="2">
+        <v>41036.70763888889</v>
+      </c>
+      <c r="D67">
+        <v>13.65</v>
+      </c>
+      <c r="E67">
+        <v>189.98</v>
+      </c>
+      <c r="F67">
+        <v>91</v>
+      </c>
+      <c r="G67">
+        <v>13.65</v>
+      </c>
+      <c r="H67">
+        <v>71.36</v>
+      </c>
+      <c r="I67">
+        <v>14.77024409429811</v>
+      </c>
+      <c r="J67">
+        <v>30.41945561047944</v>
+      </c>
+      <c r="K67">
+        <v>0.3842016</v>
+      </c>
+      <c r="L67">
+        <v>0.03</v>
+      </c>
+      <c r="M67" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>3066</v>
+      </c>
+      <c r="C68" s="2">
+        <v>41036.74930555555</v>
+      </c>
+      <c r="D68">
+        <v>13.39</v>
+      </c>
+      <c r="E68">
+        <v>65.95</v>
+      </c>
+      <c r="F68">
+        <v>32</v>
+      </c>
+      <c r="G68">
+        <v>13.39</v>
+      </c>
+      <c r="H68">
+        <v>25.17</v>
+      </c>
+      <c r="I68">
+        <v>13.835437727628</v>
+      </c>
+      <c r="J68">
+        <v>30.2047090019772</v>
+      </c>
+      <c r="K68">
+        <v>0.3842016</v>
+      </c>
+      <c r="L68">
+        <v>0.01</v>
+      </c>
+      <c r="M68" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>3067</v>
+      </c>
+      <c r="C69" s="2">
+        <v>41036.79097222222</v>
+      </c>
+      <c r="D69">
+        <v>11.94</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>11.94</v>
+      </c>
+      <c r="H69">
+        <v>25.17</v>
+      </c>
+      <c r="I69">
+        <v>11.94</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>3068</v>
+      </c>
+      <c r="C70" s="2">
+        <v>41036.83263888889</v>
+      </c>
+      <c r="D70">
+        <v>10.5</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>10.5</v>
+      </c>
+      <c r="H70">
+        <v>25.17</v>
+      </c>
+      <c r="I70">
+        <v>10.5</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>3069</v>
+      </c>
+      <c r="C71" s="2">
+        <v>41036.87430555555</v>
+      </c>
+      <c r="D71">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="H71">
+        <v>25.17</v>
+      </c>
+      <c r="I71">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>14</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>3070</v>
+      </c>
+      <c r="C72" s="2">
+        <v>41036.91597222222</v>
+      </c>
+      <c r="D72">
+        <v>8.84</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>8.84</v>
+      </c>
+      <c r="H72">
+        <v>25.17</v>
+      </c>
+      <c r="I72">
+        <v>8.84</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>14</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>3071</v>
+      </c>
+      <c r="C73" s="2">
+        <v>41036.95763888889</v>
+      </c>
+      <c r="D73">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="H73">
+        <v>25.17</v>
+      </c>
+      <c r="I73">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>14</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>3072</v>
+      </c>
+      <c r="C74" s="2">
+        <v>41036.99930555555</v>
+      </c>
+      <c r="D74">
+        <v>8.4</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>8.4</v>
+      </c>
+      <c r="H74">
+        <v>25.17</v>
+      </c>
+      <c r="I74">
+        <v>8.4</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>14</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>3073</v>
+      </c>
+      <c r="C75" s="2">
+        <v>41037.04097222222</v>
+      </c>
+      <c r="D75">
+        <v>8.67</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>8.67</v>
+      </c>
+      <c r="H75">
+        <v>25.17</v>
+      </c>
+      <c r="I75">
+        <v>8.67</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>3074</v>
+      </c>
+      <c r="C76" s="2">
+        <v>41037.08263888889</v>
+      </c>
+      <c r="D76">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="H76">
+        <v>25.17</v>
+      </c>
+      <c r="I76">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>14</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>3075</v>
+      </c>
+      <c r="C77" s="2">
+        <v>41037.12430555555</v>
+      </c>
+      <c r="D77">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="H77">
+        <v>25.17</v>
+      </c>
+      <c r="I77">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>14</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>3076</v>
+      </c>
+      <c r="C78" s="2">
+        <v>41037.16597222222</v>
+      </c>
+      <c r="D78">
+        <v>10.22</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>10.22</v>
+      </c>
+      <c r="H78">
+        <v>25.17</v>
+      </c>
+      <c r="I78">
+        <v>10.22</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>14</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>3077</v>
+      </c>
+      <c r="C79" s="2">
+        <v>41037.20763888889</v>
+      </c>
+      <c r="D79">
+        <v>11.22</v>
+      </c>
+      <c r="E79">
+        <v>95.01000000000001</v>
+      </c>
+      <c r="F79">
+        <v>46</v>
+      </c>
+      <c r="G79">
+        <v>11.22</v>
+      </c>
+      <c r="H79">
+        <v>36.17</v>
+      </c>
+      <c r="I79">
+        <v>11.82473643681988</v>
+      </c>
+      <c r="J79">
+        <v>29.76632814554151</v>
+      </c>
+      <c r="K79">
+        <v>0.3842016</v>
+      </c>
+      <c r="L79">
+        <v>0.02</v>
+      </c>
+      <c r="M79" t="s">
+        <v>14</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>3078</v>
+      </c>
+      <c r="C80" s="2">
+        <v>41037.24930555555</v>
+      </c>
+      <c r="D80">
+        <v>12.22</v>
+      </c>
+      <c r="E80">
+        <v>229.83</v>
+      </c>
+      <c r="F80">
+        <v>108</v>
+      </c>
+      <c r="G80">
+        <v>12.22</v>
+      </c>
+      <c r="H80">
+        <v>84.42</v>
+      </c>
+      <c r="I80">
+        <v>13.52958299662657</v>
+      </c>
+      <c r="J80">
+        <v>30.14885772244538</v>
+      </c>
+      <c r="K80">
+        <v>0.3842016</v>
+      </c>
+      <c r="L80">
+        <v>0.04</v>
+      </c>
+      <c r="M80" t="s">
+        <v>14</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>3079</v>
+      </c>
+      <c r="C81" s="2">
+        <v>41037.29097222222</v>
+      </c>
+      <c r="D81">
+        <v>14.04</v>
+      </c>
+      <c r="E81">
+        <v>509.83</v>
+      </c>
+      <c r="F81">
+        <v>238</v>
+      </c>
+      <c r="G81">
+        <v>14.04</v>
+      </c>
+      <c r="H81">
+        <v>185.7</v>
+      </c>
+      <c r="I81">
+        <v>16.82813481029086</v>
+      </c>
+      <c r="J81">
+        <v>30.89751213895272</v>
+      </c>
+      <c r="K81">
+        <v>0.3842016</v>
+      </c>
+      <c r="L81">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M81" t="s">
+        <v>14</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>3080</v>
+      </c>
+      <c r="C82" s="2">
+        <v>41037.33263888889</v>
+      </c>
+      <c r="D82">
+        <v>15.87</v>
+      </c>
+      <c r="E82">
+        <v>889.9400000000001</v>
+      </c>
+      <c r="F82">
+        <v>415</v>
+      </c>
+      <c r="G82">
+        <v>15.87</v>
+      </c>
+      <c r="H82">
+        <v>323.52</v>
+      </c>
+      <c r="I82">
+        <v>20.66785602344549</v>
+      </c>
+      <c r="J82">
+        <v>31.78443547687521</v>
+      </c>
+      <c r="K82">
+        <v>0.3842016</v>
+      </c>
+      <c r="L82">
+        <v>0.13</v>
+      </c>
+      <c r="M82" t="s">
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>3081</v>
+      </c>
+      <c r="C83" s="2">
+        <v>41037.37430555555</v>
+      </c>
+      <c r="D83">
+        <v>17.69</v>
+      </c>
+      <c r="E83">
+        <v>1187.35</v>
+      </c>
+      <c r="F83">
+        <v>558</v>
+      </c>
+      <c r="G83">
+        <v>17.69</v>
+      </c>
+      <c r="H83">
+        <v>435.44</v>
+      </c>
+      <c r="I83">
+        <v>24.11733399667429</v>
+      </c>
+      <c r="J83">
+        <v>32.3507350143925</v>
+      </c>
+      <c r="K83">
+        <v>0.3842016</v>
+      </c>
+      <c r="L83">
+        <v>0.17</v>
+      </c>
+      <c r="M83" t="s">
+        <v>14</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>3082</v>
+      </c>
+      <c r="C84" s="2">
+        <v>41037.41597222222</v>
+      </c>
+      <c r="D84">
+        <v>18.05</v>
+      </c>
+      <c r="E84">
+        <v>1047.22</v>
+      </c>
+      <c r="F84">
+        <v>493</v>
+      </c>
+      <c r="G84">
+        <v>18.05</v>
+      </c>
+      <c r="H84">
+        <v>384.89</v>
+      </c>
+      <c r="I84">
+        <v>23.74298047237181</v>
+      </c>
+      <c r="J84">
+        <v>32.49450176290765</v>
+      </c>
+      <c r="K84">
+        <v>0.3842016</v>
+      </c>
+      <c r="L84">
+        <v>0.15</v>
+      </c>
+      <c r="M84" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>3083</v>
+      </c>
+      <c r="C85" s="2">
+        <v>41037.45763888889</v>
+      </c>
+      <c r="D85">
+        <v>18.41</v>
+      </c>
+      <c r="E85">
+        <v>1600.51</v>
+      </c>
+      <c r="F85">
+        <v>762</v>
+      </c>
+      <c r="G85">
+        <v>18.41</v>
+      </c>
+      <c r="H85">
+        <v>595.4</v>
+      </c>
+      <c r="I85">
+        <v>27.1675666017955</v>
+      </c>
+      <c r="J85">
+        <v>33.07789747126546</v>
+      </c>
+      <c r="K85">
+        <v>0.3842016</v>
+      </c>
+      <c r="L85">
+        <v>0.23</v>
+      </c>
+      <c r="M85" t="s">
+        <v>14</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>3084</v>
+      </c>
+      <c r="C86" s="2">
+        <v>41037.49930555555</v>
+      </c>
+      <c r="D86">
+        <v>18.77</v>
+      </c>
+      <c r="E86">
+        <v>1421.07</v>
+      </c>
+      <c r="F86">
+        <v>676</v>
+      </c>
+      <c r="G86">
+        <v>18.77</v>
+      </c>
+      <c r="H86">
+        <v>528.22</v>
+      </c>
+      <c r="I86">
+        <v>26.55160118255844</v>
+      </c>
+      <c r="J86">
+        <v>32.92362346428898</v>
+      </c>
+      <c r="K86">
+        <v>0.3842016</v>
+      </c>
+      <c r="L86">
+        <v>0.21</v>
+      </c>
+      <c r="M86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>3085</v>
+      </c>
+      <c r="C87" s="2">
+        <v>41037.54097222222</v>
+      </c>
+      <c r="D87">
+        <v>18.77</v>
+      </c>
+      <c r="E87">
+        <v>1169.68</v>
+      </c>
+      <c r="F87">
+        <v>554</v>
+      </c>
+      <c r="G87">
+        <v>18.77</v>
+      </c>
+      <c r="H87">
+        <v>432.81</v>
+      </c>
+      <c r="I87">
+        <v>25.16175655361519</v>
+      </c>
+      <c r="J87">
+        <v>32.58776410796253</v>
+      </c>
+      <c r="K87">
+        <v>0.3842016</v>
+      </c>
+      <c r="L87">
+        <v>0.17</v>
+      </c>
+      <c r="M87" t="s">
+        <v>14</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>3086</v>
+      </c>
+      <c r="C88" s="2">
+        <v>41037.58263888889</v>
+      </c>
+      <c r="D88">
+        <v>18.77</v>
+      </c>
+      <c r="E88">
+        <v>631.66</v>
+      </c>
+      <c r="F88">
+        <v>299</v>
+      </c>
+      <c r="G88">
+        <v>18.77</v>
+      </c>
+      <c r="H88">
+        <v>233.85</v>
+      </c>
+      <c r="I88">
+        <v>22.26275273465183</v>
+      </c>
+      <c r="J88">
+        <v>32.12856224742084</v>
+      </c>
+      <c r="K88">
+        <v>0.3842016</v>
+      </c>
+      <c r="L88">
+        <v>0.09</v>
+      </c>
+      <c r="M88" t="s">
+        <v>14</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>3087</v>
+      </c>
+      <c r="C89" s="2">
+        <v>41037.62430555555</v>
+      </c>
+      <c r="D89">
+        <v>18.78</v>
+      </c>
+      <c r="E89">
+        <v>271.46</v>
+      </c>
+      <c r="F89">
+        <v>131</v>
+      </c>
+      <c r="G89">
+        <v>18.78</v>
+      </c>
+      <c r="H89">
+        <v>102.91</v>
+      </c>
+      <c r="I89">
+        <v>20.36283534475007</v>
+      </c>
+      <c r="J89">
+        <v>31.67334623906061</v>
+      </c>
+      <c r="K89">
+        <v>0.3842016</v>
+      </c>
+      <c r="L89">
+        <v>0.04</v>
+      </c>
+      <c r="M89" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>3088</v>
+      </c>
+      <c r="C90" s="2">
+        <v>41037.66597222222</v>
+      </c>
+      <c r="D90">
+        <v>17.68</v>
+      </c>
+      <c r="E90">
+        <v>311.16</v>
+      </c>
+      <c r="F90">
+        <v>149</v>
+      </c>
+      <c r="G90">
+        <v>17.68</v>
+      </c>
+      <c r="H90">
+        <v>116.87</v>
+      </c>
+      <c r="I90">
+        <v>19.46594043292976</v>
+      </c>
+      <c r="J90">
+        <v>31.47418033241078</v>
+      </c>
+      <c r="K90">
+        <v>0.3842016</v>
+      </c>
+      <c r="L90">
+        <v>0.05</v>
+      </c>
+      <c r="M90" t="s">
+        <v>14</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>3089</v>
+      </c>
+      <c r="C91" s="2">
+        <v>41037.70763888889</v>
+      </c>
+      <c r="D91">
+        <v>16.58</v>
+      </c>
+      <c r="E91">
+        <v>181.66</v>
+      </c>
+      <c r="F91">
+        <v>88</v>
+      </c>
+      <c r="G91">
+        <v>16.58</v>
+      </c>
+      <c r="H91">
+        <v>69.19</v>
+      </c>
+      <c r="I91">
+        <v>17.66963240521147</v>
+      </c>
+      <c r="J91">
+        <v>31.06267858351634</v>
+      </c>
+      <c r="K91">
+        <v>0.3842016</v>
+      </c>
+      <c r="L91">
+        <v>0.03</v>
+      </c>
+      <c r="M91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>3090</v>
+      </c>
+      <c r="C92" s="2">
+        <v>41037.74930555555</v>
+      </c>
+      <c r="D92">
+        <v>15.48</v>
+      </c>
+      <c r="E92">
+        <v>10.89</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>15.48</v>
+      </c>
+      <c r="H92">
+        <v>69.19</v>
+      </c>
+      <c r="I92">
+        <v>15.61598107877199</v>
+      </c>
+      <c r="J92">
+        <v>30.59346849799866</v>
+      </c>
+      <c r="K92">
+        <v>0.3842016</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
+        <v>14</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>3091</v>
+      </c>
+      <c r="C93" s="2">
+        <v>41037.79097222222</v>
+      </c>
+      <c r="D93">
+        <v>15.04</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>15.04</v>
+      </c>
+      <c r="H93">
+        <v>69.19</v>
+      </c>
+      <c r="I93">
+        <v>15.04</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>14</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>3092</v>
+      </c>
+      <c r="C94" s="2">
+        <v>41037.83263888889</v>
+      </c>
+      <c r="D94">
+        <v>14.61</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>14.61</v>
+      </c>
+      <c r="H94">
+        <v>69.19</v>
+      </c>
+      <c r="I94">
+        <v>14.61</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>14</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>3093</v>
+      </c>
+      <c r="C95" s="2">
+        <v>41037.87430555555</v>
+      </c>
+      <c r="D95">
+        <v>14.17</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>14.17</v>
+      </c>
+      <c r="H95">
+        <v>69.19</v>
+      </c>
+      <c r="I95">
+        <v>14.17</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>14</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>3094</v>
+      </c>
+      <c r="C96" s="2">
+        <v>41037.91597222222</v>
+      </c>
+      <c r="D96">
+        <v>14.03</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>14.03</v>
+      </c>
+      <c r="H96">
+        <v>69.19</v>
+      </c>
+      <c r="I96">
+        <v>14.03</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>3095</v>
+      </c>
+      <c r="C97" s="2">
+        <v>41037.95763888889</v>
+      </c>
+      <c r="D97">
+        <v>13.89</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>13.89</v>
+      </c>
+      <c r="H97">
+        <v>69.19</v>
+      </c>
+      <c r="I97">
+        <v>13.89</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>3096</v>
+      </c>
+      <c r="C98" s="2">
+        <v>41037.99930555555</v>
+      </c>
+      <c r="D98">
+        <v>13.75</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>13.75</v>
+      </c>
+      <c r="H98">
+        <v>69.19</v>
+      </c>
+      <c r="I98">
+        <v>13.75</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>14</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>3097</v>
+      </c>
+      <c r="C99" s="2">
+        <v>41038.04097222222</v>
+      </c>
+      <c r="D99">
+        <v>13.8</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>13.8</v>
+      </c>
+      <c r="H99">
+        <v>69.19</v>
+      </c>
+      <c r="I99">
+        <v>13.8</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>3098</v>
+      </c>
+      <c r="C100" s="2">
+        <v>41038.08263888889</v>
+      </c>
+      <c r="D100">
+        <v>13.86</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>13.86</v>
+      </c>
+      <c r="H100">
+        <v>69.19</v>
+      </c>
+      <c r="I100">
+        <v>13.86</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>14</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>3099</v>
+      </c>
+      <c r="C101" s="2">
+        <v>41038.12430555555</v>
+      </c>
+      <c r="D101">
+        <v>13.91</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>13.91</v>
+      </c>
+      <c r="H101">
+        <v>69.19</v>
+      </c>
+      <c r="I101">
+        <v>13.91</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>3100</v>
+      </c>
+      <c r="C102" s="2">
+        <v>41038.16597222222</v>
+      </c>
+      <c r="D102">
+        <v>14.23</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>14.23</v>
+      </c>
+      <c r="H102">
+        <v>69.19</v>
+      </c>
+      <c r="I102">
+        <v>14.23</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>14</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>3101</v>
+      </c>
+      <c r="C103" s="2">
+        <v>41038.20763888889</v>
+      </c>
+      <c r="D103">
+        <v>14.56</v>
+      </c>
+      <c r="E103">
+        <v>29.44</v>
+      </c>
+      <c r="F103">
+        <v>15</v>
+      </c>
+      <c r="G103">
+        <v>14.56</v>
+      </c>
+      <c r="H103">
+        <v>69.19</v>
+      </c>
+      <c r="I103">
+        <v>14.81239002466094</v>
+      </c>
+      <c r="J103">
+        <v>30.41739501200578</v>
+      </c>
+      <c r="K103">
+        <v>0.3842016</v>
+      </c>
+      <c r="L103">
+        <v>0.01</v>
+      </c>
+      <c r="M103" t="s">
+        <v>14</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>3102</v>
+      </c>
+      <c r="C104" s="2">
+        <v>41038.24930555555</v>
+      </c>
+      <c r="D104">
+        <v>14.88</v>
+      </c>
+      <c r="E104">
+        <v>157.27</v>
+      </c>
+      <c r="F104">
+        <v>76</v>
+      </c>
+      <c r="G104">
+        <v>14.88</v>
+      </c>
+      <c r="H104">
+        <v>59.73</v>
+      </c>
+      <c r="I104">
+        <v>15.83065170036696</v>
+      </c>
+      <c r="J104">
+        <v>30.65188657201898</v>
+      </c>
+      <c r="K104">
+        <v>0.3842016</v>
+      </c>
+      <c r="L104">
+        <v>0.03</v>
+      </c>
+      <c r="M104" t="s">
+        <v>14</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>3103</v>
+      </c>
+      <c r="C105" s="2">
+        <v>41038.29097222222</v>
+      </c>
+      <c r="D105">
+        <v>15.25</v>
+      </c>
+      <c r="E105">
+        <v>310.97</v>
+      </c>
+      <c r="F105">
+        <v>147</v>
+      </c>
+      <c r="G105">
+        <v>15.25</v>
+      </c>
+      <c r="H105">
+        <v>115.02</v>
+      </c>
+      <c r="I105">
+        <v>17.0076863002347</v>
+      </c>
+      <c r="J105">
+        <v>30.92398538783912</v>
+      </c>
+      <c r="K105">
+        <v>0.3842016</v>
+      </c>
+      <c r="L105">
+        <v>0.05</v>
+      </c>
+      <c r="M105" t="s">
+        <v>14</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>3104</v>
+      </c>
+      <c r="C106" s="2">
+        <v>41038.33263888889</v>
+      </c>
+      <c r="D106">
+        <v>15.61</v>
+      </c>
+      <c r="E106">
+        <v>540.47</v>
+      </c>
+      <c r="F106">
+        <v>253</v>
+      </c>
+      <c r="G106">
+        <v>15.61</v>
+      </c>
+      <c r="H106">
+        <v>197.49</v>
+      </c>
+      <c r="I106">
+        <v>18.57099098479466</v>
+      </c>
+      <c r="J106">
+        <v>31.28886099163863</v>
+      </c>
+      <c r="K106">
+        <v>0.3842016</v>
+      </c>
+      <c r="L106">
+        <v>0.08</v>
+      </c>
+      <c r="M106" t="s">
+        <v>14</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>3105</v>
+      </c>
+      <c r="C107" s="2">
+        <v>41038.37430555555</v>
+      </c>
+      <c r="D107">
+        <v>15.98</v>
+      </c>
+      <c r="E107">
+        <v>373.47</v>
+      </c>
+      <c r="F107">
+        <v>176</v>
+      </c>
+      <c r="G107">
+        <v>15.98</v>
+      </c>
+      <c r="H107">
+        <v>137.62</v>
+      </c>
+      <c r="I107">
+        <v>18.06770058712772</v>
+      </c>
+      <c r="J107">
+        <v>31.16482516870928</v>
+      </c>
+      <c r="K107">
+        <v>0.3842016</v>
+      </c>
+      <c r="L107">
+        <v>0.06</v>
+      </c>
+      <c r="M107" t="s">
+        <v>14</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>3106</v>
+      </c>
+      <c r="C108" s="2">
+        <v>41038.41597222222</v>
+      </c>
+      <c r="D108">
+        <v>16.39</v>
+      </c>
+      <c r="E108">
+        <v>598.6</v>
+      </c>
+      <c r="F108">
+        <v>281</v>
+      </c>
+      <c r="G108">
+        <v>16.39</v>
+      </c>
+      <c r="H108">
+        <v>219.44</v>
+      </c>
+      <c r="I108">
+        <v>19.6714477348487</v>
+      </c>
+      <c r="J108">
+        <v>31.54007676903706</v>
+      </c>
+      <c r="K108">
+        <v>0.3842016</v>
+      </c>
+      <c r="L108">
+        <v>0.09</v>
+      </c>
+      <c r="M108" t="s">
+        <v>14</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>3107</v>
+      </c>
+      <c r="C109" s="2">
+        <v>41038.45763888889</v>
+      </c>
+      <c r="D109">
+        <v>16.8</v>
+      </c>
+      <c r="E109">
+        <v>522.6799999999999</v>
+      </c>
+      <c r="F109">
+        <v>246</v>
+      </c>
+      <c r="G109">
+        <v>16.8</v>
+      </c>
+      <c r="H109">
+        <v>192.24</v>
+      </c>
+      <c r="I109">
+        <v>19.68490143574326</v>
+      </c>
+      <c r="J109">
+        <v>31.53792247329974</v>
+      </c>
+      <c r="K109">
+        <v>0.3842016</v>
+      </c>
+      <c r="L109">
+        <v>0.08</v>
+      </c>
+      <c r="M109" t="s">
+        <v>14</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>3108</v>
+      </c>
+      <c r="C110" s="2">
+        <v>41038.49930555555</v>
+      </c>
+      <c r="D110">
+        <v>17.21</v>
+      </c>
+      <c r="E110">
+        <v>240.56</v>
+      </c>
+      <c r="F110">
+        <v>116</v>
+      </c>
+      <c r="G110">
+        <v>17.21</v>
+      </c>
+      <c r="H110">
+        <v>91.12</v>
+      </c>
+      <c r="I110">
+        <v>18.61994061754518</v>
+      </c>
+      <c r="J110">
+        <v>31.27940785997147</v>
+      </c>
+      <c r="K110">
+        <v>0.3842016</v>
+      </c>
+      <c r="L110">
+        <v>0.04</v>
+      </c>
+      <c r="M110" t="s">
+        <v>14</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>3109</v>
+      </c>
+      <c r="C111" s="2">
+        <v>41038.54097222222</v>
+      </c>
+      <c r="D111">
+        <v>17.35</v>
+      </c>
+      <c r="E111">
+        <v>638.53</v>
+      </c>
+      <c r="F111">
+        <v>301</v>
+      </c>
+      <c r="G111">
+        <v>17.35</v>
+      </c>
+      <c r="H111">
+        <v>235.23</v>
+      </c>
+      <c r="I111">
+        <v>20.86209260796079</v>
+      </c>
+      <c r="J111">
+        <v>31.81150632910958</v>
+      </c>
+      <c r="K111">
+        <v>0.3842016</v>
+      </c>
+      <c r="L111">
+        <v>0.09</v>
+      </c>
+      <c r="M111" t="s">
+        <v>14</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>3110</v>
+      </c>
+      <c r="C112" s="2">
+        <v>41038.58263888889</v>
+      </c>
+      <c r="D112">
+        <v>17.49</v>
+      </c>
+      <c r="E112">
+        <v>373</v>
+      </c>
+      <c r="F112">
+        <v>177</v>
+      </c>
+      <c r="G112">
+        <v>17.49</v>
+      </c>
+      <c r="H112">
+        <v>138.58</v>
+      </c>
+      <c r="I112">
+        <v>19.59255330626991</v>
+      </c>
+      <c r="J112">
+        <v>31.5068569674694</v>
+      </c>
+      <c r="K112">
+        <v>0.3842016</v>
+      </c>
+      <c r="L112">
+        <v>0.06</v>
+      </c>
+      <c r="M112" t="s">
+        <v>14</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>3111</v>
+      </c>
+      <c r="C113" s="2">
+        <v>41038.62430555555</v>
+      </c>
+      <c r="D113">
+        <v>17.63</v>
+      </c>
+      <c r="E113">
+        <v>524.33</v>
+      </c>
+      <c r="F113">
+        <v>248</v>
+      </c>
+      <c r="G113">
+        <v>17.63</v>
+      </c>
+      <c r="H113">
+        <v>193.99</v>
+      </c>
+      <c r="I113">
+        <v>20.5407467926309</v>
+      </c>
+      <c r="J113">
+        <v>31.73111371379517</v>
+      </c>
+      <c r="K113">
+        <v>0.3842016</v>
+      </c>
+      <c r="L113">
+        <v>0.08</v>
+      </c>
+      <c r="M113" t="s">
+        <v>14</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>3112</v>
+      </c>
+      <c r="C114" s="2">
+        <v>41038.66597222222</v>
+      </c>
+      <c r="D114">
+        <v>17.35</v>
+      </c>
+      <c r="E114">
+        <v>334.83</v>
+      </c>
+      <c r="F114">
+        <v>160</v>
+      </c>
+      <c r="G114">
+        <v>17.35</v>
+      </c>
+      <c r="H114">
+        <v>125.43</v>
+      </c>
+      <c r="I114">
+        <v>19.26082747164861</v>
+      </c>
+      <c r="J114">
+        <v>31.42975216954533</v>
+      </c>
+      <c r="K114">
+        <v>0.3842016</v>
+      </c>
+      <c r="L114">
+        <v>0.05</v>
+      </c>
+      <c r="M114" t="s">
+        <v>14</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>3113</v>
+      </c>
+      <c r="C115" s="2">
+        <v>41038.70763888889</v>
+      </c>
+      <c r="D115">
+        <v>17.08</v>
+      </c>
+      <c r="E115">
+        <v>88.04000000000001</v>
+      </c>
+      <c r="F115">
+        <v>44</v>
+      </c>
+      <c r="G115">
+        <v>17.08</v>
+      </c>
+      <c r="H115">
+        <v>34.8</v>
+      </c>
+      <c r="I115">
+        <v>17.66796391475702</v>
+      </c>
+      <c r="J115">
+        <v>31.05559529001528</v>
+      </c>
+      <c r="K115">
+        <v>0.3842016</v>
+      </c>
+      <c r="L115">
+        <v>0.02</v>
+      </c>
+      <c r="M115" t="s">
+        <v>14</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>3114</v>
+      </c>
+      <c r="C116" s="2">
+        <v>41038.74930555555</v>
+      </c>
+      <c r="D116">
+        <v>16.81</v>
+      </c>
+      <c r="E116">
+        <v>68.72</v>
+      </c>
+      <c r="F116">
+        <v>34</v>
+      </c>
+      <c r="G116">
+        <v>16.81</v>
+      </c>
+      <c r="H116">
+        <v>26.84</v>
+      </c>
+      <c r="I116">
+        <v>17.28170622020116</v>
+      </c>
+      <c r="J116">
+        <v>30.96791125550619</v>
+      </c>
+      <c r="K116">
+        <v>0.3842016</v>
+      </c>
+      <c r="L116">
+        <v>0.01</v>
+      </c>
+      <c r="M116" t="s">
+        <v>14</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>3115</v>
+      </c>
+      <c r="C117" s="2">
+        <v>41038.79097222222</v>
+      </c>
+      <c r="D117">
+        <v>16.08</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>16.08</v>
+      </c>
+      <c r="H117">
+        <v>26.84</v>
+      </c>
+      <c r="I117">
+        <v>16.08</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>14</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>3116</v>
+      </c>
+      <c r="C118" s="2">
+        <v>41038.83263888889</v>
+      </c>
+      <c r="D118">
+        <v>15.35</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>15.35</v>
+      </c>
+      <c r="H118">
+        <v>26.84</v>
+      </c>
+      <c r="I118">
+        <v>15.35</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>14</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>3117</v>
+      </c>
+      <c r="C119" s="2">
+        <v>41038.87430555555</v>
+      </c>
+      <c r="D119">
+        <v>14.61</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>14.61</v>
+      </c>
+      <c r="H119">
+        <v>26.84</v>
+      </c>
+      <c r="I119">
+        <v>14.61</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>14</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>3118</v>
+      </c>
+      <c r="C120" s="2">
+        <v>41038.91597222222</v>
+      </c>
+      <c r="D120">
+        <v>14.51</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>14.51</v>
+      </c>
+      <c r="H120">
+        <v>26.84</v>
+      </c>
+      <c r="I120">
+        <v>14.51</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120" t="s">
+        <v>14</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>3119</v>
+      </c>
+      <c r="C121" s="2">
+        <v>41038.95763888889</v>
+      </c>
+      <c r="D121">
+        <v>14.4</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>14.4</v>
+      </c>
+      <c r="H121">
+        <v>26.84</v>
+      </c>
+      <c r="I121">
+        <v>14.4</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>14</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>367140</v>
+      </c>
+      <c r="D122">
+        <v>1500.82</v>
+      </c>
+      <c r="E122">
+        <v>25807.93</v>
+      </c>
+      <c r="F122">
+        <v>12240</v>
+      </c>
+      <c r="G122">
+        <v>1500.82</v>
+      </c>
+      <c r="H122">
+        <v>11450.86</v>
+      </c>
+      <c r="I122">
+        <v>1645.964556222068</v>
+      </c>
+      <c r="J122">
+        <v>2144.602039311051</v>
+      </c>
+      <c r="K122">
+        <v>26.894112</v>
+      </c>
+      <c r="L122">
+        <v>3.89</v>
       </c>
     </row>
   </sheetData>
